--- a/FishLandings/household groups/statistics summary.xlsx
+++ b/FishLandings/household groups/statistics summary.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmmaStrand\MyProjects\Kenya_SamakiSalama\FishLandings\household groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35024522-5B30-4FF8-90A0-5AE4E703273B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5FB419-1D44-4DCE-BC6C-36012245E2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5664" yWindow="1272" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="7" r:id="rId1"/>
+    <sheet name="Length" sheetId="1" r:id="rId2"/>
+    <sheet name="Nutrients" sheetId="3" r:id="rId3"/>
+    <sheet name="Diet" sheetId="6" r:id="rId4"/>
+    <sheet name="Catch" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="118">
   <si>
     <t>Effect</t>
   </si>
@@ -78,13 +82,307 @@
     <t>Residuals</t>
   </si>
   <si>
-    <t>&lt; 0.0001</t>
-  </si>
-  <si>
     <t>aov (length ~ group)</t>
   </si>
   <si>
     <t>Distance from Lmat (cm)</t>
+  </si>
+  <si>
+    <t>p &lt; 0.0001</t>
+  </si>
+  <si>
+    <t>Length Metrics</t>
+  </si>
+  <si>
+    <t>Nutrient Metrics</t>
+  </si>
+  <si>
+    <t>Calcium (mg)</t>
+  </si>
+  <si>
+    <t>aov (mg ~ group)</t>
+  </si>
+  <si>
+    <t>Iron (mg)</t>
+  </si>
+  <si>
+    <t>Omega3 (g)</t>
+  </si>
+  <si>
+    <t>Protein (g)</t>
+  </si>
+  <si>
+    <t>Selenium (ug)</t>
+  </si>
+  <si>
+    <t>aov (g ~ group)</t>
+  </si>
+  <si>
+    <t>aov (ug ~ group)</t>
+  </si>
+  <si>
+    <t>VitaminA (ug)</t>
+  </si>
+  <si>
+    <t>Zinc (ug)</t>
+  </si>
+  <si>
+    <t>% Carnviorous</t>
+  </si>
+  <si>
+    <t>aov (% ~ group)</t>
+  </si>
+  <si>
+    <t>% Herbivorous Detritivorous</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>% Herbivorous Macroalgal</t>
+  </si>
+  <si>
+    <t>% Omnivorous</t>
+  </si>
+  <si>
+    <t>% Planktivorous</t>
+  </si>
+  <si>
+    <t>Catch Metrics</t>
+  </si>
+  <si>
+    <t>Diet Metrics</t>
+  </si>
+  <si>
+    <t>aov (kg ~ group)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass (kg)  </t>
+  </si>
+  <si>
+    <t>Biomass (kg) Taken Home</t>
+  </si>
+  <si>
+    <t>Catch Per Fisherman (CPUE)</t>
+  </si>
+  <si>
+    <t>aov (CPUE ~ group)</t>
+  </si>
+  <si>
+    <t>Species Richness</t>
+  </si>
+  <si>
+    <t>aov (n ~ group)</t>
+  </si>
+  <si>
+    <t>Trophic Level</t>
+  </si>
+  <si>
+    <t>aov (level ~ group)</t>
+  </si>
+  <si>
+    <t>Value (KES)</t>
+  </si>
+  <si>
+    <t>aov (KES ~ group)</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM - Control </t>
+  </si>
+  <si>
+    <t>SM + Traps</t>
+  </si>
+  <si>
+    <t>Mean ± St. Error (n)</t>
+  </si>
+  <si>
+    <t>3.82 ± 0.41 (39)</t>
+  </si>
+  <si>
+    <t>2.53 ± 0.32 (116)</t>
+  </si>
+  <si>
+    <t>4.26 ± 0.37 (71)</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>0.45 ± 0.11 (4)</t>
+  </si>
+  <si>
+    <t>0.79 ± 0.29 (18)</t>
+  </si>
+  <si>
+    <t>1.44 ± 0.13 (29)</t>
+  </si>
+  <si>
+    <t>1,762.92 ± 180.88 (39)</t>
+  </si>
+  <si>
+    <t>1,195.01 ± 149.88 (116)</t>
+  </si>
+  <si>
+    <t>1,812.43 ± 156.64 (71)</t>
+  </si>
+  <si>
+    <t>32.86 ± 5.24 (39)</t>
+  </si>
+  <si>
+    <t>29.10 ± 2.89 (116)</t>
+  </si>
+  <si>
+    <t>15.46 ± 2.16 (71)</t>
+  </si>
+  <si>
+    <t>15.53 ± 1.29 (39)</t>
+  </si>
+  <si>
+    <t>10.44 ± 0.71 (116)</t>
+  </si>
+  <si>
+    <t>15.47 ± 1.22 (71)</t>
+  </si>
+  <si>
+    <t>2.66 ± 1.01 (39)</t>
+  </si>
+  <si>
+    <t>0.80 ± 0.55 (116)</t>
+  </si>
+  <si>
+    <t>3.27 ± 0.51 (71)</t>
+  </si>
+  <si>
+    <t>60.51 ± 5.57 (39)</t>
+  </si>
+  <si>
+    <t>52.42 ± 3.28 (116)</t>
+  </si>
+  <si>
+    <t>72.68 ± 2.86 (71)</t>
+  </si>
+  <si>
+    <t>0.64 ± 0.64 (39)</t>
+  </si>
+  <si>
+    <t>5.37 ± 1.61 (116)</t>
+  </si>
+  <si>
+    <t>0 ± 0 (71)</t>
+  </si>
+  <si>
+    <t>30.73 ± 3.79 (39)</t>
+  </si>
+  <si>
+    <t>20.72 ± 2.58 (116)</t>
+  </si>
+  <si>
+    <t>37.16 ± 3.16 (71)</t>
+  </si>
+  <si>
+    <t>24.22 ± 1.18 (39)</t>
+  </si>
+  <si>
+    <t>21.57 ± 0.74 (116)</t>
+  </si>
+  <si>
+    <t>27.04 ± 0.54 (71)</t>
+  </si>
+  <si>
+    <t>8.16 ± 1.16 (39)</t>
+  </si>
+  <si>
+    <t>5.08 ± 0.72 (116)</t>
+  </si>
+  <si>
+    <t>10.02 ± 0.92 (71)</t>
+  </si>
+  <si>
+    <t>5.98 ± 3.65 (39)</t>
+  </si>
+  <si>
+    <t>11.16 ± 2.18 (116)</t>
+  </si>
+  <si>
+    <t>10.72 ± 2.07 (71)</t>
+  </si>
+  <si>
+    <t>0 ± 0 (39)</t>
+  </si>
+  <si>
+    <t>1.94 ± 0.76 (116)</t>
+  </si>
+  <si>
+    <t>1.14 ± 0.69 (71)</t>
+  </si>
+  <si>
+    <t>642.29 ± 73.34 (39)</t>
+  </si>
+  <si>
+    <t>468.88 ± 60.90 (116)</t>
+  </si>
+  <si>
+    <t>781.01 ± 68.98 (71)</t>
+  </si>
+  <si>
+    <t>1,075.61 ± 118.85 (39)</t>
+  </si>
+  <si>
+    <t>735.28 ± 101.23 (116)</t>
+  </si>
+  <si>
+    <t>1,117.88 ± 104.59 (71)</t>
+  </si>
+  <si>
+    <t>2.13 ± 0.16 (39)</t>
+  </si>
+  <si>
+    <t>2.34 ± 0.14 (116)</t>
+  </si>
+  <si>
+    <t>2.62 ± 0.19 (71)</t>
+  </si>
+  <si>
+    <t>2.56 ± 0.1 (39)</t>
+  </si>
+  <si>
+    <t>2.59 ± 0.05 (116)</t>
+  </si>
+  <si>
+    <t>2.29 ± 0.04 (71)</t>
+  </si>
+  <si>
+    <t>688.57 ± 84.52 (39)</t>
+  </si>
+  <si>
+    <t>410.04 ± 58.00 (116)</t>
+  </si>
+  <si>
+    <t>769.16 ± 69.81 (71)</t>
+  </si>
+  <si>
+    <t>1,649.73 ± 284.55 (39)</t>
+  </si>
+  <si>
+    <t>1,017.72 ± 136.93 (116)</t>
+  </si>
+  <si>
+    <t>1,458.73 ± 153.96 (71)</t>
+  </si>
+  <si>
+    <t>60.56 ± 7.07 (39)</t>
+  </si>
+  <si>
+    <t>39.91 ± 4.69 (116)</t>
+  </si>
+  <si>
+    <t>71.97 ± 6.06 (71)</t>
   </si>
 </sst>
 </file>
@@ -94,7 +392,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +420,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -143,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -272,18 +577,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -304,19 +643,100 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -598,414 +1018,4757 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E06F813-7338-485B-A007-E93757D85C7B}">
+  <dimension ref="B3:F63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="16"/>
+    <col min="2" max="2" width="29.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" style="69" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.10095899999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="48"/>
+      <c r="C5" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.10519000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="49"/>
+      <c r="C6" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0.16929900000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="48"/>
+      <c r="C8" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0.84406199999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="49"/>
+      <c r="C9" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="36">
+        <v>9.6620000000000004E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="32">
+        <v>8.9454000000000006E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="48"/>
+      <c r="C11" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0.98400900000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="49"/>
+      <c r="C12" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="36">
+        <v>1.4345E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0.11010300000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="48"/>
+      <c r="C14" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0.45139099999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="49"/>
+      <c r="C15" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="36">
+        <v>1.9000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="32">
+        <v>7.8071000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="48"/>
+      <c r="C17" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0.44097399999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="49"/>
+      <c r="C18" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="36">
+        <v>8.0000000000000007E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="32">
+        <v>0.26812000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="48"/>
+      <c r="C20" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="32">
+        <v>0.48186200000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="49"/>
+      <c r="C21" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="36">
+        <v>2.0330000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="32">
+        <v>0.14516299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="48"/>
+      <c r="C23" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0.97426599999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="49"/>
+      <c r="C24" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="36">
+        <v>2.648E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="45">
+        <v>5.6696000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="48"/>
+      <c r="C26" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0.793767</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="49"/>
+      <c r="C27" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="33">
+        <v>0.119883</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="45">
+        <v>6.5806000000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="48"/>
+      <c r="C29" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0.48275299999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="49"/>
+      <c r="C30" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="36">
+        <v>8.1000000000000004E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0.74869600000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="48"/>
+      <c r="C32" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="35">
+        <v>5.862E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="49"/>
+      <c r="C33" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="36">
+        <v>4.052E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="32">
+        <v>0.36364000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="48"/>
+      <c r="C35" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="32">
+        <v>0.14141100000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="49"/>
+      <c r="C36" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="36">
+        <v>1.22E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="32">
+        <v>0.10566200000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="48"/>
+      <c r="C38" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="32">
+        <v>0.96443699999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="49"/>
+      <c r="C39" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="36">
+        <v>1.3528E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="32">
+        <v>0.40166299999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="59"/>
+      <c r="C41" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="32">
+        <v>0.51743799999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="52"/>
+      <c r="C42" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="33">
+        <v>0.989846</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="32">
+        <v>0.26283600000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="59"/>
+      <c r="C44" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="32">
+        <v>0.67078199999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="49"/>
+      <c r="C45" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="33">
+        <v>0.70625599999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="35">
+        <v>8.1814999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="59"/>
+      <c r="C47" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="32">
+        <v>0.76895000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="49"/>
+      <c r="C48" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="36">
+        <v>1.32E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="32">
+        <v>0.77264200000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="59"/>
+      <c r="C50" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="32">
+        <v>0.11310199999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="49"/>
+      <c r="C51" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="36">
+        <v>5.6349999999999997E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="35">
+        <v>4.7930000000000004E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="59"/>
+      <c r="C53" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="32">
+        <v>0.99937500000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="49"/>
+      <c r="C54" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="36">
+        <v>4.35E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="32">
+        <v>0.719831</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="59"/>
+      <c r="C56" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="32">
+        <v>0.20863300000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="49"/>
+      <c r="C57" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="33">
+        <v>0.39966299999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="32">
+        <v>0.93880200000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="59"/>
+      <c r="C59" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="35">
+        <v>1.7291000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B60" s="49"/>
+      <c r="C60" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="36">
+        <v>1.9799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B61" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="35">
+        <v>3.3382000000000002E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="59"/>
+      <c r="C62" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="32">
+        <v>0.77748200000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="49"/>
+      <c r="C63" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="36">
+        <v>2.6600000000000001E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="25.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="3" width="25.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+    <row r="1" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="3" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="22">
+        <v>22869.23127</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22">
+        <v>474.96516600000001</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1325.836395</v>
+      </c>
+      <c r="F5" s="30">
         <v>2</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G5" s="30">
+        <v>13.767977</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="22">
+        <v>10737.28968</v>
+      </c>
+      <c r="F6" s="22">
+        <v>223</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3"/>
+      <c r="C7" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="25">
+        <v>-2.6440100000000002</v>
+      </c>
+      <c r="F8" s="25">
+        <v>-5.6745080000000003</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.386488</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.10095899999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="25">
+        <v>2.8209789999999999</v>
+      </c>
+      <c r="F9" s="25">
+        <v>-0.44222600000000001</v>
+      </c>
+      <c r="G9" s="25">
+        <v>6.0841839999999996</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.10519000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="28">
+        <v>5.4649890000000001</v>
+      </c>
+      <c r="F10" s="28">
+        <v>2.9979719999999999</v>
+      </c>
+      <c r="G10" s="28">
+        <v>7.9320060000000003</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E13" s="22">
+        <v>275.77135900000002</v>
+      </c>
+      <c r="F13" s="22">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
-        <v>23597.200000000001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>498.32799999999997</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="G13" s="22">
+        <v>8.9615340000000003</v>
+      </c>
+      <c r="H13" s="32">
+        <v>3.068E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="23"/>
+      <c r="D14" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="30">
+        <v>295.92694799999998</v>
+      </c>
+      <c r="F14" s="30">
+        <v>2</v>
+      </c>
+      <c r="G14" s="30">
+        <v>4.8082570000000002</v>
+      </c>
+      <c r="H14" s="35">
+        <v>9.0279999999999996E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="22">
+        <v>6862.3310439999996</v>
+      </c>
+      <c r="F15" s="22">
+        <v>223</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="C16" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="25">
+        <v>-1.8564339999999999</v>
+      </c>
+      <c r="F17" s="25">
+        <v>-4.2791499999999996</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0.56628199999999995</v>
+      </c>
+      <c r="H17" s="32">
+        <v>0.16929900000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.61353800000000003</v>
+      </c>
+      <c r="F18" s="25">
+        <v>-1.995214</v>
+      </c>
+      <c r="G18" s="25">
+        <v>3.2222900000000001</v>
+      </c>
+      <c r="H18" s="32">
+        <v>0.84406199999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="28">
+        <v>2.4699719999999998</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0.497728</v>
+      </c>
+      <c r="G19" s="28">
+        <v>4.4422160000000002</v>
+      </c>
+      <c r="H19" s="36">
+        <v>9.6620000000000004E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C378BB95-8E32-43A5-9776-0E3CD4F07137}">
+  <dimension ref="B1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="3" width="25.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="3" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="22">
+        <v>121210411.712973</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22">
+        <v>57.495063000000002</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="18">
+      <c r="E5" s="30">
+        <v>20378896.423126999</v>
+      </c>
+      <c r="F5" s="30">
         <v>2</v>
       </c>
-      <c r="E5" s="18">
-        <v>1297.0999999999999</v>
-      </c>
-      <c r="F5" s="18">
-        <v>13.696</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="30">
+        <v>4.8332730000000002</v>
+      </c>
+      <c r="H5" s="35">
+        <v>8.8140000000000007E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1">
-        <v>229</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10843.8</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="22">
+        <v>470125964.65798801</v>
+      </c>
+      <c r="F6" s="22">
+        <v>223</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4">
-        <v>-2.4235549999999999</v>
-      </c>
-      <c r="E8" s="4">
-        <v>-5.3664601000000003</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.51934990000000003</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.12914929999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="1" t="s">
+      <c r="E8" s="25">
+        <v>-567.93368299999997</v>
+      </c>
+      <c r="F8" s="25">
+        <v>-1202.0571170000001</v>
+      </c>
+      <c r="G8" s="25">
+        <v>66.189751000000001</v>
+      </c>
+      <c r="H8" s="32">
+        <v>8.9454000000000006E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4">
-        <v>2.9294389999999999</v>
-      </c>
-      <c r="E9" s="4">
-        <v>-0.23874029999999999</v>
-      </c>
-      <c r="F9" s="4">
-        <v>6.0976172999999996</v>
-      </c>
-      <c r="G9" s="5">
-        <v>7.6556100000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="15" t="s">
+      <c r="E9" s="25">
+        <v>49.487735000000001</v>
+      </c>
+      <c r="F9" s="25">
+        <v>-633.328937</v>
+      </c>
+      <c r="G9" s="25">
+        <v>732.30440799999997</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0.98400900000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="16">
-        <v>5.3529939999999998</v>
-      </c>
-      <c r="E10" s="16">
-        <v>2.9357253000000001</v>
-      </c>
-      <c r="F10" s="16">
-        <v>7.7702619999999998</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
+      <c r="E10" s="28">
+        <v>617.42141800000002</v>
+      </c>
+      <c r="F10" s="28">
+        <v>101.204913</v>
+      </c>
+      <c r="G10" s="28">
+        <v>1133.6379240000001</v>
+      </c>
+      <c r="H10" s="36">
+        <v>1.4345E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="G12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="22">
+        <v>36838.023985</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22">
+        <v>51.418331999999999</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="30">
+        <v>12345.922807999999</v>
+      </c>
+      <c r="F14" s="30">
         <v>2</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G14" s="30">
+        <v>8.6161890000000003</v>
+      </c>
+      <c r="H14" s="35">
+        <v>2.4899999999999998E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="22">
+        <v>159765.57502300001</v>
+      </c>
+      <c r="F15" s="22">
+        <v>223</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="C16" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="25">
+        <v>-10.000859</v>
+      </c>
+      <c r="F17" s="25">
+        <v>-21.690691999999999</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1.6889730000000001</v>
+      </c>
+      <c r="H17" s="32">
+        <v>0.11010300000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="25">
+        <v>6.4290789999999998</v>
+      </c>
+      <c r="F18" s="25">
+        <v>-6.1583949999999996</v>
+      </c>
+      <c r="G18" s="25">
+        <v>19.016553999999999</v>
+      </c>
+      <c r="H18" s="32">
+        <v>0.45139099999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="28">
+        <v>16.429939000000001</v>
+      </c>
+      <c r="F19" s="28">
+        <v>6.9136769999999999</v>
+      </c>
+      <c r="G19" s="28">
+        <v>25.946200000000001</v>
+      </c>
+      <c r="H19" s="36">
+        <v>1.9000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="22">
+        <v>2593.792633</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="22">
+        <v>44.350780999999998</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="30">
+        <v>1121.284486</v>
+      </c>
+      <c r="F23" s="30">
+        <v>2</v>
+      </c>
+      <c r="G23" s="30">
+        <v>9.5863180000000003</v>
+      </c>
+      <c r="H23" s="35">
+        <v>1.01E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="22">
+        <v>13041.839241</v>
+      </c>
+      <c r="F24" s="22">
+        <v>223</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="3"/>
+      <c r="C25" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="25">
+        <v>-3.07613</v>
+      </c>
+      <c r="F26" s="25">
+        <v>-6.4160500000000003</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0.26379000000000002</v>
+      </c>
+      <c r="H26" s="32">
+        <v>7.8071000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="25">
+        <v>1.8638049999999999</v>
+      </c>
+      <c r="F27" s="25">
+        <v>-1.7325820000000001</v>
+      </c>
+      <c r="G27" s="25">
+        <v>5.4601920000000002</v>
+      </c>
+      <c r="H27" s="32">
+        <v>0.44097399999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="28">
+        <v>4.9399350000000002</v>
+      </c>
+      <c r="F28" s="28">
+        <v>2.2210290000000001</v>
+      </c>
+      <c r="G28" s="28">
+        <v>7.6588409999999998</v>
+      </c>
+      <c r="H28" s="36">
+        <v>8.0000000000000007E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E31" s="22">
+        <v>16088714.006620999</v>
+      </c>
+      <c r="F31" s="22">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
-        <v>308.39999999999998</v>
-      </c>
-      <c r="F13" s="1">
-        <v>6.7995000000000001</v>
-      </c>
-      <c r="G13" s="5">
-        <v>9.7179999999999992E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G31" s="22">
+        <v>44.245455</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="30">
+        <v>4388189.0640759999</v>
+      </c>
+      <c r="F32" s="30">
+        <v>2</v>
+      </c>
+      <c r="G32" s="30">
+        <v>6.033963</v>
+      </c>
+      <c r="H32" s="35">
+        <v>2.8050000000000002E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="22">
+        <v>81088175.764445007</v>
+      </c>
+      <c r="F33" s="22">
+        <v>223</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="3"/>
+      <c r="C34" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="25">
+        <v>-173.40550200000001</v>
+      </c>
+      <c r="F35" s="25">
+        <v>-436.762856</v>
+      </c>
+      <c r="G35" s="25">
+        <v>89.951851000000005</v>
+      </c>
+      <c r="H35" s="32">
+        <v>0.26812000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="25">
+        <v>138.72704300000001</v>
+      </c>
+      <c r="F36" s="25">
+        <v>-144.85306399999999</v>
+      </c>
+      <c r="G36" s="25">
+        <v>422.30715099999998</v>
+      </c>
+      <c r="H36" s="32">
+        <v>0.48186200000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="28">
+        <v>312.13254599999999</v>
+      </c>
+      <c r="F37" s="28">
+        <v>97.743035000000006</v>
+      </c>
+      <c r="G37" s="28">
+        <v>526.52205600000002</v>
+      </c>
+      <c r="H37" s="36">
+        <v>2.0330000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="50"/>
+      <c r="D39" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="22">
+        <v>45120885.777277999</v>
+      </c>
+      <c r="F40" s="22">
+        <v>1</v>
+      </c>
+      <c r="G40" s="22">
+        <v>47.463298999999999</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="30">
+        <v>7675081.493396</v>
+      </c>
+      <c r="F41" s="30">
+        <v>2</v>
+      </c>
+      <c r="G41" s="30">
+        <v>4.0367629999999997</v>
+      </c>
+      <c r="H41" s="35">
+        <v>1.8960000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="22">
+        <v>211994483.83322001</v>
+      </c>
+      <c r="F42" s="22">
+        <v>223</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="3"/>
+      <c r="C43" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="25">
+        <v>-340.33705500000002</v>
+      </c>
+      <c r="F44" s="25">
+        <v>-766.15990799999997</v>
+      </c>
+      <c r="G44" s="25">
+        <v>85.485797000000005</v>
+      </c>
+      <c r="H44" s="32">
+        <v>0.14516299999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="25">
+        <v>42.263302000000003</v>
+      </c>
+      <c r="F45" s="25">
+        <v>-416.25774799999999</v>
+      </c>
+      <c r="G45" s="25">
+        <v>500.78435200000001</v>
+      </c>
+      <c r="H45" s="32">
+        <v>0.97426599999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="28">
+        <v>382.60035699999997</v>
+      </c>
+      <c r="F46" s="28">
+        <v>35.953674999999997</v>
+      </c>
+      <c r="G46" s="28">
+        <v>729.24703999999997</v>
+      </c>
+      <c r="H46" s="36">
+        <v>2.648E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="50"/>
+      <c r="D48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="22">
+        <v>106143380.984658</v>
+      </c>
+      <c r="F49" s="22">
+        <v>1</v>
+      </c>
+      <c r="G49" s="22">
+        <v>48.509731000000002</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="23"/>
+      <c r="D50" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="30">
+        <v>15530776.874209</v>
+      </c>
+      <c r="F50" s="30">
+        <v>2</v>
+      </c>
+      <c r="G50" s="30">
+        <v>3.5489440000000001</v>
+      </c>
+      <c r="H50" s="35">
+        <v>3.039E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="3"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="22">
+        <v>487942795.675565</v>
+      </c>
+      <c r="F51" s="22">
+        <v>223</v>
+      </c>
+      <c r="G51" s="22"/>
+      <c r="H51" s="24"/>
+    </row>
+    <row r="52" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="3"/>
+      <c r="C52" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="44">
+        <v>-632.01939200000004</v>
+      </c>
+      <c r="F53" s="44">
+        <v>-1278.0470909999999</v>
+      </c>
+      <c r="G53" s="44">
+        <v>14.008308</v>
+      </c>
+      <c r="H53" s="45">
+        <v>5.6696000000000003E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="25">
+        <v>-191.00834</v>
+      </c>
+      <c r="F54" s="25">
+        <v>-886.64338499999997</v>
+      </c>
+      <c r="G54" s="25">
+        <v>504.62670500000002</v>
+      </c>
+      <c r="H54" s="32">
+        <v>0.793767</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="26">
+        <v>441.01105200000001</v>
+      </c>
+      <c r="F55" s="26">
+        <v>-84.896276999999998</v>
+      </c>
+      <c r="G55" s="26">
+        <v>966.91837999999996</v>
+      </c>
+      <c r="H55" s="33">
+        <v>0.119883</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="50"/>
+      <c r="D57" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="22">
+        <v>143023.14558099999</v>
+      </c>
+      <c r="F58" s="22">
+        <v>1</v>
+      </c>
+      <c r="G58" s="22">
+        <v>58.017291999999998</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="23"/>
+      <c r="D59" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="30">
+        <v>47563.327645999998</v>
+      </c>
+      <c r="F59" s="30">
+        <v>2</v>
+      </c>
+      <c r="G59" s="30">
+        <v>9.647024</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="3"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="22">
+        <v>549735.43922900001</v>
+      </c>
+      <c r="F60" s="22">
+        <v>223</v>
+      </c>
+      <c r="G60" s="22"/>
+      <c r="H60" s="24"/>
+    </row>
+    <row r="61" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="3"/>
+      <c r="C61" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="44">
+        <v>-20.643864000000001</v>
+      </c>
+      <c r="F62" s="44">
+        <v>-42.328071000000001</v>
+      </c>
+      <c r="G62" s="44">
+        <v>1.040343</v>
+      </c>
+      <c r="H62" s="45">
+        <v>6.5806000000000003E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="25">
+        <v>11.407889000000001</v>
+      </c>
+      <c r="F63" s="25">
+        <v>-11.941411</v>
+      </c>
+      <c r="G63" s="25">
+        <v>34.757188999999997</v>
+      </c>
+      <c r="H63" s="32">
+        <v>0.48275299999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="28">
+        <v>32.051752999999998</v>
+      </c>
+      <c r="F64" s="28">
+        <v>14.39944</v>
+      </c>
+      <c r="G64" s="28">
+        <v>49.704067000000002</v>
+      </c>
+      <c r="H64" s="36">
+        <v>8.1000000000000004E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB1DE-4344-41A6-8204-0643B4E43D22}">
+  <dimension ref="B1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="3" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="22">
+        <v>42119.729345</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22">
+        <v>53.64931</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="30">
+        <v>10771.595525000001</v>
+      </c>
+      <c r="F5" s="30">
+        <v>2</v>
+      </c>
+      <c r="G5" s="30">
+        <v>6.8600709999999996</v>
+      </c>
+      <c r="H5" s="35">
+        <v>1.2849999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="22">
+        <v>175075.86968900001</v>
+      </c>
+      <c r="F6" s="22">
+        <v>223</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3"/>
+      <c r="C7" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="25">
+        <v>-3.7622629999999999</v>
+      </c>
+      <c r="F8" s="25">
+        <v>-15.9994</v>
+      </c>
+      <c r="G8" s="25">
+        <v>8.4748750000000008</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0.74869600000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="46">
+        <v>-17.400642999999999</v>
+      </c>
+      <c r="F9" s="46">
+        <v>-30.577449000000001</v>
+      </c>
+      <c r="G9" s="46">
+        <v>-4.2238369999999996</v>
+      </c>
+      <c r="H9" s="35">
+        <v>5.862E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="28">
+        <v>-13.638381000000001</v>
+      </c>
+      <c r="F10" s="28">
+        <v>-23.600183000000001</v>
+      </c>
+      <c r="G10" s="28">
+        <v>-3.6765780000000001</v>
+      </c>
+      <c r="H10" s="36">
+        <v>4.052E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="22">
+        <v>142810.25641</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22">
+        <v>138.179495</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="18">
+      <c r="E14" s="30">
+        <v>18084.358538</v>
+      </c>
+      <c r="F14" s="30">
         <v>2</v>
       </c>
-      <c r="E14" s="18">
-        <v>471.2</v>
-      </c>
-      <c r="F14" s="18">
-        <v>5.1947999999999999</v>
-      </c>
-      <c r="G14" s="21">
-        <v>6.2170000000000003E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="30">
+        <v>8.7489779999999993</v>
+      </c>
+      <c r="H14" s="35">
+        <v>2.2000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1">
-        <v>229</v>
-      </c>
-      <c r="E15" s="1">
-        <v>10386.5</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="22">
+        <v>230473.32103699999</v>
+      </c>
+      <c r="F15" s="22">
+        <v>223</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="4">
-        <v>-2.50353</v>
-      </c>
-      <c r="E17" s="4">
-        <v>-5.3837223999999999</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.37665149999999997</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0.1026784</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1" t="s">
+      <c r="E17" s="25">
+        <v>-8.0942380000000007</v>
+      </c>
+      <c r="F17" s="25">
+        <v>-22.134557999999998</v>
+      </c>
+      <c r="G17" s="25">
+        <v>5.9460819999999996</v>
+      </c>
+      <c r="H17" s="32">
+        <v>0.36364000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="4">
-        <v>0.50990000000000002</v>
-      </c>
-      <c r="E18" s="4">
-        <v>-2.5907192000000001</v>
-      </c>
-      <c r="F18" s="4">
-        <v>3.6106004</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.92041379999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="15" t="s">
+      <c r="E18" s="25">
+        <v>12.166331</v>
+      </c>
+      <c r="F18" s="25">
+        <v>-2.952121</v>
+      </c>
+      <c r="G18" s="25">
+        <v>27.284783000000001</v>
+      </c>
+      <c r="H18" s="32">
+        <v>0.14141100000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="16">
-        <v>3.0134759999999998</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0.64772359999999995</v>
-      </c>
-      <c r="F19" s="16">
-        <v>5.3792285</v>
-      </c>
-      <c r="G19" s="20">
-        <v>8.2707000000000006E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
+      <c r="E19" s="28">
+        <v>20.260569</v>
+      </c>
+      <c r="F19" s="28">
+        <v>8.8308619999999998</v>
+      </c>
+      <c r="G19" s="28">
+        <v>31.690276000000001</v>
+      </c>
+      <c r="H19" s="36">
+        <v>1.22E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="50"/>
+      <c r="D21" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="G21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="22">
+        <v>16.025641</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="22">
+        <v>0.101788</v>
+      </c>
+      <c r="H22" s="32">
+        <v>0.74999300000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="30">
+        <v>1505.652417</v>
+      </c>
+      <c r="F23" s="30">
         <v>2</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G23" s="30">
+        <v>4.781625</v>
+      </c>
+      <c r="H23" s="35">
+        <v>9.2610000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="22">
+        <v>35109.453286000004</v>
+      </c>
+      <c r="F24" s="22">
+        <v>223</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="3"/>
+      <c r="C25" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="25">
+        <v>4.7325379999999999</v>
+      </c>
+      <c r="F26" s="25">
+        <v>-0.74743899999999996</v>
+      </c>
+      <c r="G26" s="25">
+        <v>10.212514000000001</v>
+      </c>
+      <c r="H26" s="32">
+        <v>0.10566200000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="25">
+        <v>-0.64102599999999998</v>
+      </c>
+      <c r="F27" s="25">
+        <v>-6.5418000000000003</v>
+      </c>
+      <c r="G27" s="25">
+        <v>5.2597490000000002</v>
+      </c>
+      <c r="H27" s="32">
+        <v>0.96443699999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="28">
+        <v>-5.3735629999999999</v>
+      </c>
+      <c r="F28" s="28">
+        <v>-9.8346099999999996</v>
+      </c>
+      <c r="G28" s="28">
+        <v>-0.91251599999999999</v>
+      </c>
+      <c r="H28" s="36">
+        <v>1.3528E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="H30" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="22">
+        <v>1396.0113960000001</v>
+      </c>
+      <c r="F31" s="22">
+        <v>1</v>
+      </c>
+      <c r="G31" s="22">
+        <v>2.9720049999999998</v>
+      </c>
+      <c r="H31" s="32">
+        <v>8.6102999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="22">
+        <v>818.93503499999997</v>
+      </c>
+      <c r="F32" s="22">
+        <v>2</v>
+      </c>
+      <c r="G32" s="22">
+        <v>0.871726</v>
+      </c>
+      <c r="H32" s="32">
+        <v>0.41964899999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="22">
+        <v>104747.660202</v>
+      </c>
+      <c r="F33" s="22">
+        <v>223</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="3"/>
+      <c r="C34" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="25">
+        <v>5.179519</v>
+      </c>
+      <c r="F35" s="25">
+        <v>-4.2858790000000004</v>
+      </c>
+      <c r="G35" s="25">
+        <v>14.644916</v>
+      </c>
+      <c r="H35" s="32">
+        <v>0.40166299999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="25">
+        <v>4.735163</v>
+      </c>
+      <c r="F36" s="25">
+        <v>-5.4570660000000002</v>
+      </c>
+      <c r="G36" s="25">
+        <v>14.927391999999999</v>
+      </c>
+      <c r="H36" s="32">
+        <v>0.51743799999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="26">
+        <v>-0.44435599999999997</v>
+      </c>
+      <c r="F37" s="26">
+        <v>-8.1497869999999999</v>
+      </c>
+      <c r="G37" s="26">
+        <v>7.2610749999999999</v>
+      </c>
+      <c r="H37" s="33">
+        <v>0.989846</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="50"/>
+      <c r="D39" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="22">
+        <v>0</v>
+      </c>
+      <c r="F40" s="22">
+        <v>1</v>
+      </c>
+      <c r="G40" s="22">
+        <v>0</v>
+      </c>
+      <c r="H40" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="22">
+        <v>115.184878</v>
+      </c>
+      <c r="F41" s="22">
+        <v>2</v>
+      </c>
+      <c r="G41" s="22">
+        <v>1.278897</v>
+      </c>
+      <c r="H41" s="32">
+        <v>0.28037800000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="22">
+        <v>10042.337357</v>
+      </c>
+      <c r="F42" s="22">
+        <v>223</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="3"/>
+      <c r="C43" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="25">
+        <v>1.9444440000000001</v>
+      </c>
+      <c r="F44" s="25">
+        <v>-0.98634100000000002</v>
+      </c>
+      <c r="G44" s="25">
+        <v>4.8752300000000002</v>
+      </c>
+      <c r="H44" s="32">
+        <v>0.26283600000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="25">
+        <v>1.140174</v>
+      </c>
+      <c r="F45" s="25">
+        <v>-2.0156610000000001</v>
+      </c>
+      <c r="G45" s="25">
+        <v>4.2960099999999999</v>
+      </c>
+      <c r="H45" s="32">
+        <v>0.67078199999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="26">
+        <v>-0.80427000000000004</v>
+      </c>
+      <c r="F46" s="26">
+        <v>-3.190115</v>
+      </c>
+      <c r="G46" s="26">
+        <v>1.581575</v>
+      </c>
+      <c r="H46" s="33">
+        <v>0.70625599999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="54"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="31"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="56"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="31"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="57"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="54"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="31"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="58"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="31"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="57"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="56"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FFC064-2F91-4093-9CA2-53F2C36B19E0}">
+  <dimension ref="B1:H65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="3" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="22">
+        <v>569.06220399999995</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22">
+        <v>54.631182000000003</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="30">
+        <v>144.66428500000001</v>
+      </c>
+      <c r="F5" s="30">
+        <v>2</v>
+      </c>
+      <c r="G5" s="30">
+        <v>6.9440400000000002</v>
+      </c>
+      <c r="H5" s="35">
+        <v>1.1869999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="22">
+        <v>2322.8651799999998</v>
+      </c>
+      <c r="F6" s="22">
+        <v>223</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3"/>
+      <c r="C7" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="46">
+        <v>-1.286</v>
+      </c>
+      <c r="F8" s="46">
+        <v>-2.6955439999999999</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0.123544</v>
+      </c>
+      <c r="H8" s="35">
+        <v>8.1814999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.444548</v>
+      </c>
+      <c r="F9" s="25">
+        <v>-1.0732330000000001</v>
+      </c>
+      <c r="G9" s="25">
+        <v>1.962329</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0.76895000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="28">
+        <v>1.730548</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0.58309</v>
+      </c>
+      <c r="G10" s="28">
+        <v>2.8780060000000001</v>
+      </c>
+      <c r="H10" s="36">
+        <v>1.32E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.80072299999999996</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0.96716299999999999</v>
+      </c>
+      <c r="H13" s="32">
+        <v>0.33032</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="30">
+        <v>6.6748919999999998</v>
+      </c>
+      <c r="F14" s="30">
+        <v>2</v>
+      </c>
+      <c r="G14" s="30">
+        <v>4.0311729999999999</v>
+      </c>
+      <c r="H14" s="35">
+        <v>2.4081000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="22">
+        <v>39.739646999999998</v>
+      </c>
+      <c r="F15" s="22">
+        <v>48</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="C16" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.34512700000000002</v>
+      </c>
+      <c r="F17" s="25">
+        <v>-0.87128399999999995</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1.5615380000000001</v>
+      </c>
+      <c r="H17" s="32">
+        <v>0.77264200000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.99118700000000004</v>
+      </c>
+      <c r="F18" s="25">
+        <v>-0.18253</v>
+      </c>
+      <c r="G18" s="25">
+        <v>2.1649029999999998</v>
+      </c>
+      <c r="H18" s="32">
+        <v>0.11310199999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0.64605900000000005</v>
+      </c>
+      <c r="F19" s="28">
+        <v>-1.4252000000000001E-2</v>
+      </c>
+      <c r="G19" s="28">
+        <v>1.3063709999999999</v>
+      </c>
+      <c r="H19" s="36">
+        <v>5.6349999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="D21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="22">
+        <v>9405.9515670000001</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="22">
+        <v>125.667214</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="30">
+        <v>1441.540078</v>
+      </c>
+      <c r="F23" s="30">
+        <v>2</v>
+      </c>
+      <c r="G23" s="30">
+        <v>9.6297709999999999</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="22">
+        <v>16691.125237</v>
+      </c>
+      <c r="F24" s="22">
+        <v>223</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="3"/>
+      <c r="C25" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="46">
+        <v>-5.0902589999999996</v>
+      </c>
+      <c r="F26" s="46">
+        <v>-8.8686729999999994</v>
+      </c>
+      <c r="G26" s="46">
+        <v>-1.3118460000000001</v>
+      </c>
+      <c r="H26" s="35">
+        <v>4.7930000000000004E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="25">
+        <v>-5.8083999999999997E-2</v>
+      </c>
+      <c r="F27" s="25">
+        <v>-4.1266350000000003</v>
+      </c>
+      <c r="G27" s="25">
+        <v>4.0104680000000004</v>
+      </c>
+      <c r="H27" s="32">
+        <v>0.99937500000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="28">
+        <v>5.0321759999999998</v>
+      </c>
+      <c r="F28" s="28">
+        <v>1.9563090000000001</v>
+      </c>
+      <c r="G28" s="28">
+        <v>8.1080430000000003</v>
+      </c>
+      <c r="H28" s="36">
+        <v>4.35E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="63"/>
+      <c r="D30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="64"/>
+      <c r="D31" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E31" s="22">
+        <v>176.64102600000001</v>
+      </c>
+      <c r="F31" s="22">
         <v>1</v>
       </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="18" t="s">
+      <c r="G31" s="22">
+        <v>83.636263</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="65"/>
+      <c r="D32" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="18">
+      <c r="E32" s="22">
+        <v>6.7552139999999996</v>
+      </c>
+      <c r="F32" s="22">
         <v>2</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="1" t="s">
+      <c r="G32" s="22">
+        <v>1.599234</v>
+      </c>
+      <c r="H32" s="32">
+        <v>0.20436000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="1">
-        <v>224</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="3"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13" t="s">
+      <c r="E33" s="22">
+        <v>470.97930000000002</v>
+      </c>
+      <c r="F33" s="22">
+        <v>223</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="3"/>
+      <c r="C34" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="G34" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="H34" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="1" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="1" t="s">
+      <c r="E35" s="25">
+        <v>0.20800199999999999</v>
+      </c>
+      <c r="F35" s="25">
+        <v>-0.42669699999999999</v>
+      </c>
+      <c r="G35" s="25">
+        <v>0.8427</v>
+      </c>
+      <c r="H35" s="32">
+        <v>0.719831</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="15" t="s">
+      <c r="E36" s="25">
+        <v>0.49151299999999998</v>
+      </c>
+      <c r="F36" s="25">
+        <v>-0.19192300000000001</v>
+      </c>
+      <c r="G36" s="25">
+        <v>1.174949</v>
+      </c>
+      <c r="H36" s="32">
+        <v>0.20863300000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="20"/>
+      <c r="E37" s="26">
+        <v>0.28351100000000001</v>
+      </c>
+      <c r="F37" s="26">
+        <v>-0.23317299999999999</v>
+      </c>
+      <c r="G37" s="26">
+        <v>0.80019600000000002</v>
+      </c>
+      <c r="H37" s="33">
+        <v>0.39966299999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="63"/>
+      <c r="D39" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="22">
+        <v>255.89569499999999</v>
+      </c>
+      <c r="F40" s="22">
+        <v>1</v>
+      </c>
+      <c r="G40" s="22">
+        <v>1033.5777479999999</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="65"/>
+      <c r="D41" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="30">
+        <v>4.3174099999999997</v>
+      </c>
+      <c r="F41" s="30">
+        <v>2</v>
+      </c>
+      <c r="G41" s="30">
+        <v>8.7191369999999999</v>
+      </c>
+      <c r="H41" s="35">
+        <v>2.2599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="22">
+        <v>55.210883000000003</v>
+      </c>
+      <c r="F42" s="22">
+        <v>223</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="3"/>
+      <c r="C43" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="25">
+        <v>3.1178999999999998E-2</v>
+      </c>
+      <c r="F44" s="25">
+        <v>-0.18613099999999999</v>
+      </c>
+      <c r="G44" s="25">
+        <v>0.24848899999999999</v>
+      </c>
+      <c r="H44" s="32">
+        <v>0.93880200000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="46">
+        <v>-0.273449</v>
+      </c>
+      <c r="F45" s="46">
+        <v>-0.50744599999999995</v>
+      </c>
+      <c r="G45" s="46">
+        <v>-3.9453000000000002E-2</v>
+      </c>
+      <c r="H45" s="35">
+        <v>1.7291000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="28">
+        <v>-0.30462800000000001</v>
+      </c>
+      <c r="F46" s="28">
+        <v>-0.48153200000000002</v>
+      </c>
+      <c r="G46" s="28">
+        <v>-0.127724</v>
+      </c>
+      <c r="H46" s="36">
+        <v>1.9799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="31"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="54"/>
+    </row>
+    <row r="48" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="63"/>
+      <c r="D48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="64"/>
+      <c r="D49" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="22">
+        <v>18491262.629693002</v>
+      </c>
+      <c r="F49" s="22">
+        <v>1</v>
+      </c>
+      <c r="G49" s="22">
+        <v>51.753833999999998</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="65"/>
+      <c r="D50" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="30">
+        <v>6332519.4247420002</v>
+      </c>
+      <c r="F50" s="30">
+        <v>2</v>
+      </c>
+      <c r="G50" s="30">
+        <v>8.8618109999999994</v>
+      </c>
+      <c r="H50" s="35">
+        <v>1.9799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="3"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="22">
+        <v>79676253.100513995</v>
+      </c>
+      <c r="F51" s="22">
+        <v>223</v>
+      </c>
+      <c r="G51" s="22"/>
+      <c r="H51" s="24"/>
+    </row>
+    <row r="52" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="3"/>
+      <c r="C52" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="46">
+        <v>-278.539468</v>
+      </c>
+      <c r="F53" s="46">
+        <v>-539.59393899999998</v>
+      </c>
+      <c r="G53" s="46">
+        <v>-17.484997</v>
+      </c>
+      <c r="H53" s="35">
+        <v>3.3382000000000002E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="25">
+        <v>80.581306999999995</v>
+      </c>
+      <c r="F54" s="25">
+        <v>-200.51908399999999</v>
+      </c>
+      <c r="G54" s="25">
+        <v>361.68169799999998</v>
+      </c>
+      <c r="H54" s="32">
+        <v>0.77748200000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="28">
+        <v>359.12077499999998</v>
+      </c>
+      <c r="F55" s="28">
+        <v>146.60595599999999</v>
+      </c>
+      <c r="G55" s="28">
+        <v>571.63559399999997</v>
+      </c>
+      <c r="H55" s="36">
+        <v>2.6600000000000001E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="31"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="54"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="43"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="41"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="31"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="31"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="58"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="31"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="31"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="31"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="57"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="31"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="31"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="31"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="56"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="31"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="54"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/FishLandings/household groups/statistics summary.xlsx
+++ b/FishLandings/household groups/statistics summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmmaStrand\MyProjects\Kenya_SamakiSalama\FishLandings\household groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5FB419-1D44-4DCE-BC6C-36012245E2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914DE7DA-0842-488E-AB26-71D9BAB2F972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -616,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -663,54 +663,43 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -739,6 +728,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,26 +1025,26 @@
     <col min="1" max="1" width="8.88671875" style="16"/>
     <col min="2" max="2" width="29.109375" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" style="69" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" style="62" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" style="16" customWidth="1"/>
     <col min="6" max="6" width="15" style="16" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1057,10 +1052,10 @@
       <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="58" t="s">
         <v>85</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1071,11 +1066,11 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="48"/>
-      <c r="C5" s="61" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="58" t="s">
         <v>86</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1086,14 +1081,14 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="49"/>
-      <c r="C6" s="62" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="47" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="14" t="s">
@@ -1104,46 +1099,46 @@
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="58" t="s">
         <v>73</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <v>0.16929900000000001</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="48"/>
-      <c r="C8" s="61" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="58" t="s">
         <v>74</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <v>0.84406199999999998</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="49"/>
-      <c r="C9" s="62" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <v>9.6620000000000004E-3</v>
       </c>
     </row>
@@ -1151,46 +1146,46 @@
       <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="58" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>8.9454000000000006E-2</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="48"/>
-      <c r="C11" s="61" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="58" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="31">
         <v>0.98400900000000002</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="49"/>
-      <c r="C12" s="62" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="35">
         <v>1.4345E-2</v>
       </c>
     </row>
@@ -1198,46 +1193,46 @@
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="58" t="s">
         <v>82</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <v>0.11010300000000001</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="48"/>
-      <c r="C14" s="61" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="58" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="31">
         <v>0.45139099999999999</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="49"/>
-      <c r="C15" s="62" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
@@ -1245,46 +1240,46 @@
       <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="58" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="31">
         <v>7.8071000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="48"/>
-      <c r="C17" s="61" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="58" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <v>0.44097399999999998</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="49"/>
-      <c r="C18" s="62" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="35">
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
@@ -1292,46 +1287,46 @@
       <c r="B19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="58" t="s">
         <v>97</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
         <v>0.26812000000000002</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="48"/>
-      <c r="C20" s="61" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="58" t="s">
         <v>98</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="31">
         <v>0.48186200000000001</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="49"/>
-      <c r="C21" s="62" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="35">
         <v>2.0330000000000001E-3</v>
       </c>
     </row>
@@ -1339,93 +1334,93 @@
       <c r="B22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="58" t="s">
         <v>100</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="31">
         <v>0.14516299999999999</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="48"/>
-      <c r="C23" s="61" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="58" t="s">
         <v>101</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="31">
         <v>0.97426599999999997</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="49"/>
-      <c r="C24" s="62" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="35">
         <v>2.648E-2</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="42">
         <v>5.6696000000000003E-2</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="48"/>
-      <c r="C26" s="61" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="58" t="s">
         <v>113</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="31">
         <v>0.793767</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="49"/>
-      <c r="C27" s="62" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="60" t="s">
         <v>114</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="32">
         <v>0.119883</v>
       </c>
     </row>
@@ -1433,46 +1428,46 @@
       <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="58" t="s">
         <v>115</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="42">
         <v>6.5806000000000003E-2</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="48"/>
-      <c r="C29" s="61" t="s">
+      <c r="B29" s="45"/>
+      <c r="C29" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="58" t="s">
         <v>116</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="31">
         <v>0.48275299999999999</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="49"/>
-      <c r="C30" s="62" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="35">
         <v>8.1000000000000004E-5</v>
       </c>
     </row>
@@ -1480,46 +1475,46 @@
       <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="58" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="31">
         <v>0.74869600000000003</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="48"/>
-      <c r="C32" s="61" t="s">
+      <c r="B32" s="45"/>
+      <c r="C32" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="34">
         <v>5.862E-3</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="49"/>
-      <c r="C33" s="62" t="s">
+      <c r="B33" s="46"/>
+      <c r="C33" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="35">
         <v>4.052E-3</v>
       </c>
     </row>
@@ -1527,46 +1522,46 @@
       <c r="B34" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="58" t="s">
         <v>76</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="31">
         <v>0.36364000000000002</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="48"/>
-      <c r="C35" s="61" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="58" t="s">
         <v>77</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="31">
         <v>0.14141100000000001</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="49"/>
-      <c r="C36" s="62" t="s">
+      <c r="B36" s="46"/>
+      <c r="C36" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="67" t="s">
+      <c r="D36" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="35">
         <v>1.22E-4</v>
       </c>
     </row>
@@ -1574,46 +1569,46 @@
       <c r="B37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="58" t="s">
         <v>79</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="31">
         <v>0.10566200000000001</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="48"/>
-      <c r="C38" s="61" t="s">
+      <c r="B38" s="45"/>
+      <c r="C38" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="58" t="s">
         <v>80</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="31">
         <v>0.96443699999999999</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="49"/>
-      <c r="C39" s="62" t="s">
+      <c r="B39" s="46"/>
+      <c r="C39" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="35">
         <v>1.3528E-2</v>
       </c>
     </row>
@@ -1621,46 +1616,46 @@
       <c r="B40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="65" t="s">
+      <c r="D40" s="58" t="s">
         <v>91</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F40" s="31">
         <v>0.40166299999999999</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="59"/>
-      <c r="C41" s="61" t="s">
+      <c r="B41" s="45"/>
+      <c r="C41" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="58" t="s">
         <v>92</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="31">
         <v>0.51743799999999995</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="52"/>
-      <c r="C42" s="62" t="s">
+      <c r="B42" s="46"/>
+      <c r="C42" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="67" t="s">
+      <c r="D42" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="32">
         <v>0.989846</v>
       </c>
     </row>
@@ -1668,46 +1663,46 @@
       <c r="B43" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="65" t="s">
+      <c r="D43" s="58" t="s">
         <v>94</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="32">
+      <c r="F43" s="31">
         <v>0.26283600000000001</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="59"/>
-      <c r="C44" s="61" t="s">
+      <c r="B44" s="45"/>
+      <c r="C44" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="65" t="s">
+      <c r="D44" s="58" t="s">
         <v>95</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="31">
         <v>0.67078199999999999</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="49"/>
-      <c r="C45" s="62" t="s">
+      <c r="B45" s="46"/>
+      <c r="C45" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="D45" s="60" t="s">
         <v>96</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="33">
+      <c r="F45" s="32">
         <v>0.70625599999999999</v>
       </c>
     </row>
@@ -1715,46 +1710,46 @@
       <c r="B46" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="65" t="s">
+      <c r="D46" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="35">
+      <c r="F46" s="34">
         <v>8.1814999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="59"/>
-      <c r="C47" s="61" t="s">
+      <c r="B47" s="45"/>
+      <c r="C47" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="65" t="s">
+      <c r="D47" s="58" t="s">
         <v>58</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="31">
         <v>0.76895000000000002</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="49"/>
-      <c r="C48" s="62" t="s">
+      <c r="B48" s="46"/>
+      <c r="C48" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="67" t="s">
+      <c r="D48" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="51" t="s">
+      <c r="E48" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="35">
         <v>1.32E-3</v>
       </c>
     </row>
@@ -1762,46 +1757,46 @@
       <c r="B49" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="65" t="s">
+      <c r="D49" s="58" t="s">
         <v>61</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="31">
         <v>0.77264200000000005</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="59"/>
-      <c r="C50" s="61" t="s">
+      <c r="B50" s="45"/>
+      <c r="C50" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="65" t="s">
+      <c r="D50" s="58" t="s">
         <v>62</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="32">
+      <c r="F50" s="31">
         <v>0.11310199999999999</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="49"/>
-      <c r="C51" s="62" t="s">
+      <c r="B51" s="46"/>
+      <c r="C51" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="67" t="s">
+      <c r="D51" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="51" t="s">
+      <c r="E51" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="36">
+      <c r="F51" s="35">
         <v>5.6349999999999997E-2</v>
       </c>
     </row>
@@ -1809,46 +1804,46 @@
       <c r="B52" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="61" t="s">
+      <c r="C52" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="65" t="s">
+      <c r="D52" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="35">
+      <c r="F52" s="34">
         <v>4.7930000000000004E-3</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="59"/>
-      <c r="C53" s="61" t="s">
+      <c r="B53" s="45"/>
+      <c r="C53" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="65" t="s">
+      <c r="D53" s="58" t="s">
         <v>71</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="32">
+      <c r="F53" s="31">
         <v>0.99937500000000001</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="49"/>
-      <c r="C54" s="62" t="s">
+      <c r="B54" s="46"/>
+      <c r="C54" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="67" t="s">
+      <c r="D54" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="51" t="s">
+      <c r="E54" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="36">
+      <c r="F54" s="35">
         <v>4.35E-4</v>
       </c>
     </row>
@@ -1856,46 +1851,46 @@
       <c r="B55" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="65" t="s">
+      <c r="D55" s="58" t="s">
         <v>103</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="32">
+      <c r="F55" s="31">
         <v>0.719831</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="59"/>
-      <c r="C56" s="61" t="s">
+      <c r="B56" s="45"/>
+      <c r="C56" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="65" t="s">
+      <c r="D56" s="58" t="s">
         <v>104</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="31">
         <v>0.20863300000000001</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="49"/>
-      <c r="C57" s="62" t="s">
+      <c r="B57" s="46"/>
+      <c r="C57" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="67" t="s">
+      <c r="D57" s="60" t="s">
         <v>105</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="33">
+      <c r="F57" s="32">
         <v>0.39966299999999999</v>
       </c>
     </row>
@@ -1903,46 +1898,46 @@
       <c r="B58" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="61" t="s">
+      <c r="C58" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="65" t="s">
+      <c r="D58" s="58" t="s">
         <v>106</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F58" s="32">
+      <c r="F58" s="31">
         <v>0.93880200000000003</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="59"/>
-      <c r="C59" s="61" t="s">
+      <c r="B59" s="45"/>
+      <c r="C59" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="65" t="s">
+      <c r="D59" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="60" t="s">
+      <c r="E59" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="35">
+      <c r="F59" s="34">
         <v>1.7291000000000001E-2</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="49"/>
-      <c r="C60" s="62" t="s">
+      <c r="B60" s="46"/>
+      <c r="C60" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="67" t="s">
+      <c r="D60" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="51" t="s">
+      <c r="E60" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="36">
+      <c r="F60" s="35">
         <v>1.9799999999999999E-4</v>
       </c>
     </row>
@@ -1950,46 +1945,46 @@
       <c r="B61" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="65" t="s">
+      <c r="D61" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="E61" s="60" t="s">
+      <c r="E61" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="35">
+      <c r="F61" s="34">
         <v>3.3382000000000002E-2</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="59"/>
-      <c r="C62" s="61" t="s">
+      <c r="B62" s="45"/>
+      <c r="C62" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="65" t="s">
+      <c r="D62" s="58" t="s">
         <v>110</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F62" s="32">
+      <c r="F62" s="31">
         <v>0.77748200000000001</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="49"/>
-      <c r="C63" s="62" t="s">
+      <c r="B63" s="46"/>
+      <c r="C63" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="67" t="s">
+      <c r="D63" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="E63" s="51" t="s">
+      <c r="E63" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="36">
+      <c r="F63" s="35">
         <v>2.6600000000000001E-4</v>
       </c>
     </row>
@@ -2019,34 +2014,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="3" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="37" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2109,7 +2104,7 @@
     </row>
     <row r="7" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="18"/>
@@ -2127,10 +2122,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="58" t="s">
         <v>85</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -2150,10 +2145,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="58" t="s">
         <v>86</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -2173,10 +2168,10 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="60" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="27" t="s">
@@ -2199,7 +2194,7 @@
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="9" t="s">
         <v>0</v>
       </c>
@@ -2233,7 +2228,7 @@
       <c r="G13" s="22">
         <v>8.9615340000000003</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="31">
         <v>3.068E-3</v>
       </c>
     </row>
@@ -2254,7 +2249,7 @@
       <c r="G14" s="30">
         <v>4.8082570000000002</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="34">
         <v>9.0279999999999996E-3</v>
       </c>
     </row>
@@ -2275,7 +2270,7 @@
     </row>
     <row r="16" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="11"/>
@@ -2293,10 +2288,10 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="58" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="23" t="s">
@@ -2311,15 +2306,15 @@
       <c r="G17" s="25">
         <v>0.56628199999999995</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <v>0.16929900000000001</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="58" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -2334,15 +2329,15 @@
       <c r="G18" s="25">
         <v>3.2222900000000001</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="31">
         <v>0.84406199999999998</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="60" t="s">
         <v>75</v>
       </c>
       <c r="D19" s="27" t="s">
@@ -2357,7 +2352,7 @@
       <c r="G19" s="28">
         <v>4.4422160000000002</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>9.6620000000000004E-3</v>
       </c>
     </row>
@@ -2398,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C378BB95-8E32-43A5-9776-0E3CD4F07137}">
   <dimension ref="B1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2415,15 +2410,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="3" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -2484,7 +2479,7 @@
       <c r="G5" s="30">
         <v>4.8332730000000002</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="34">
         <v>8.8140000000000007E-3</v>
       </c>
     </row>
@@ -2505,7 +2500,7 @@
     </row>
     <row r="7" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="18"/>
@@ -2523,10 +2518,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="58" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -2541,15 +2536,15 @@
       <c r="G8" s="25">
         <v>66.189751000000001</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <v>8.9454000000000006E-2</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="58" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -2564,15 +2559,15 @@
       <c r="G9" s="25">
         <v>732.30440799999997</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <v>0.98400900000000002</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="60" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="27" t="s">
@@ -2587,7 +2582,7 @@
       <c r="G10" s="28">
         <v>1133.6379240000001</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="35">
         <v>1.4345E-2</v>
       </c>
     </row>
@@ -2595,7 +2590,7 @@
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="9" t="s">
         <v>0</v>
       </c>
@@ -2650,7 +2645,7 @@
       <c r="G14" s="30">
         <v>8.6161890000000003</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="34">
         <v>2.4899999999999998E-4</v>
       </c>
     </row>
@@ -2671,7 +2666,7 @@
     </row>
     <row r="16" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="11"/>
@@ -2689,10 +2684,10 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="58" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="23" t="s">
@@ -2707,15 +2702,15 @@
       <c r="G17" s="25">
         <v>1.6889730000000001</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <v>0.11010300000000001</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="58" t="s">
         <v>83</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -2730,15 +2725,15 @@
       <c r="G18" s="25">
         <v>19.016553999999999</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="31">
         <v>0.45139099999999999</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="60" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="27" t="s">
@@ -2753,7 +2748,7 @@
       <c r="G19" s="28">
         <v>25.946200000000001</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
@@ -2761,7 +2756,7 @@
       <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="50"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="9" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2811,7 @@
       <c r="G23" s="30">
         <v>9.5863180000000003</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="34">
         <v>1.01E-4</v>
       </c>
     </row>
@@ -2837,7 +2832,7 @@
     </row>
     <row r="25" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="11"/>
@@ -2855,10 +2850,10 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="58" t="s">
         <v>88</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -2873,15 +2868,15 @@
       <c r="G26" s="25">
         <v>0.26379000000000002</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="31">
         <v>7.8071000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="58" t="s">
         <v>89</v>
       </c>
       <c r="D27" s="23" t="s">
@@ -2896,15 +2891,15 @@
       <c r="G27" s="25">
         <v>5.4601920000000002</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="31">
         <v>0.44097399999999998</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="60" t="s">
         <v>90</v>
       </c>
       <c r="D28" s="27" t="s">
@@ -2919,7 +2914,7 @@
       <c r="G28" s="28">
         <v>7.6588409999999998</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="35">
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
@@ -2927,7 +2922,7 @@
       <c r="B30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="9" t="s">
         <v>0</v>
       </c>
@@ -2982,7 +2977,7 @@
       <c r="G32" s="30">
         <v>6.033963</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="34">
         <v>2.8050000000000002E-3</v>
       </c>
     </row>
@@ -3003,7 +2998,7 @@
     </row>
     <row r="34" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="11"/>
@@ -3021,10 +3016,10 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="58" t="s">
         <v>97</v>
       </c>
       <c r="D35" s="23" t="s">
@@ -3039,15 +3034,15 @@
       <c r="G35" s="25">
         <v>89.951851000000005</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="31">
         <v>0.26812000000000002</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="58" t="s">
         <v>98</v>
       </c>
       <c r="D36" s="23" t="s">
@@ -3062,15 +3057,15 @@
       <c r="G36" s="25">
         <v>422.30715099999998</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="31">
         <v>0.48186200000000001</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="60" t="s">
         <v>99</v>
       </c>
       <c r="D37" s="27" t="s">
@@ -3085,7 +3080,7 @@
       <c r="G37" s="28">
         <v>526.52205600000002</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="35">
         <v>2.0330000000000001E-3</v>
       </c>
     </row>
@@ -3093,7 +3088,7 @@
       <c r="B39" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="50"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="9" t="s">
         <v>0</v>
       </c>
@@ -3148,7 +3143,7 @@
       <c r="G41" s="30">
         <v>4.0367629999999997</v>
       </c>
-      <c r="H41" s="35">
+      <c r="H41" s="34">
         <v>1.8960000000000001E-2</v>
       </c>
     </row>
@@ -3169,7 +3164,7 @@
     </row>
     <row r="43" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="11"/>
@@ -3187,10 +3182,10 @@
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="65" t="s">
+      <c r="C44" s="58" t="s">
         <v>100</v>
       </c>
       <c r="D44" s="23" t="s">
@@ -3205,15 +3200,15 @@
       <c r="G44" s="25">
         <v>85.485797000000005</v>
       </c>
-      <c r="H44" s="32">
+      <c r="H44" s="31">
         <v>0.14516299999999999</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="58" t="s">
         <v>101</v>
       </c>
       <c r="D45" s="23" t="s">
@@ -3228,15 +3223,15 @@
       <c r="G45" s="25">
         <v>500.78435200000001</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="31">
         <v>0.97426599999999997</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="60" t="s">
         <v>102</v>
       </c>
       <c r="D46" s="27" t="s">
@@ -3251,7 +3246,7 @@
       <c r="G46" s="28">
         <v>729.24703999999997</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H46" s="35">
         <v>2.648E-2</v>
       </c>
     </row>
@@ -3259,7 +3254,7 @@
       <c r="B48" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="50"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="9" t="s">
         <v>0</v>
       </c>
@@ -3314,7 +3309,7 @@
       <c r="G50" s="30">
         <v>3.5489440000000001</v>
       </c>
-      <c r="H50" s="35">
+      <c r="H50" s="34">
         <v>3.039E-2</v>
       </c>
     </row>
@@ -3335,7 +3330,7 @@
     </row>
     <row r="52" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3"/>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D52" s="11"/>
@@ -3353,33 +3348,33 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="44">
+      <c r="E53" s="41">
         <v>-632.01939200000004</v>
       </c>
-      <c r="F53" s="44">
+      <c r="F53" s="41">
         <v>-1278.0470909999999</v>
       </c>
-      <c r="G53" s="44">
+      <c r="G53" s="41">
         <v>14.008308</v>
       </c>
-      <c r="H53" s="45">
+      <c r="H53" s="42">
         <v>5.6696000000000003E-2</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="58" t="s">
         <v>113</v>
       </c>
       <c r="D54" s="23" t="s">
@@ -3394,18 +3389,18 @@
       <c r="G54" s="25">
         <v>504.62670500000002</v>
       </c>
-      <c r="H54" s="32">
+      <c r="H54" s="31">
         <v>0.793767</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E55" s="26">
@@ -3417,7 +3412,7 @@
       <c r="G55" s="26">
         <v>966.91837999999996</v>
       </c>
-      <c r="H55" s="33">
+      <c r="H55" s="32">
         <v>0.119883</v>
       </c>
     </row>
@@ -3425,7 +3420,7 @@
       <c r="B57" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="50"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="9" t="s">
         <v>0</v>
       </c>
@@ -3501,7 +3496,7 @@
     </row>
     <row r="61" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3"/>
-      <c r="C61" s="66" t="s">
+      <c r="C61" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D61" s="11"/>
@@ -3519,33 +3514,33 @@
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="61" t="s">
+      <c r="B62" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="65" t="s">
+      <c r="C62" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="42" t="s">
+      <c r="D62" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="44">
+      <c r="E62" s="41">
         <v>-20.643864000000001</v>
       </c>
-      <c r="F62" s="44">
+      <c r="F62" s="41">
         <v>-42.328071000000001</v>
       </c>
-      <c r="G62" s="44">
+      <c r="G62" s="41">
         <v>1.040343</v>
       </c>
-      <c r="H62" s="45">
+      <c r="H62" s="42">
         <v>6.5806000000000003E-2</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="61" t="s">
+      <c r="B63" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="58" t="s">
         <v>116</v>
       </c>
       <c r="D63" s="23" t="s">
@@ -3560,15 +3555,15 @@
       <c r="G63" s="25">
         <v>34.757188999999997</v>
       </c>
-      <c r="H63" s="32">
+      <c r="H63" s="31">
         <v>0.48275299999999999</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="62" t="s">
+      <c r="B64" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="67" t="s">
+      <c r="C64" s="60" t="s">
         <v>117</v>
       </c>
       <c r="D64" s="27" t="s">
@@ -3583,7 +3578,7 @@
       <c r="G64" s="28">
         <v>49.704067000000002</v>
       </c>
-      <c r="H64" s="36">
+      <c r="H64" s="35">
         <v>8.1000000000000004E-5</v>
       </c>
     </row>
@@ -3598,7 +3593,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB1DE-4344-41A6-8204-0643B4E43D22}">
-  <dimension ref="B1:H65"/>
+  <dimension ref="B1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
@@ -3618,15 +3613,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="3" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -3687,7 +3682,7 @@
       <c r="G5" s="30">
         <v>6.8600709999999996</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="34">
         <v>1.2849999999999999E-3</v>
       </c>
     </row>
@@ -3708,7 +3703,7 @@
     </row>
     <row r="7" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="18"/>
@@ -3726,10 +3721,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="58" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -3744,38 +3739,38 @@
       <c r="G8" s="25">
         <v>8.4748750000000008</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <v>0.74869600000000003</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="58" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="43">
         <v>-17.400642999999999</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="43">
         <v>-30.577449000000001</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="43">
         <v>-4.2238369999999996</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="34">
         <v>5.862E-3</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="60" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="27" t="s">
@@ -3790,7 +3785,7 @@
       <c r="G10" s="28">
         <v>-3.6765780000000001</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="35">
         <v>4.052E-3</v>
       </c>
     </row>
@@ -3798,7 +3793,7 @@
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="9" t="s">
         <v>0</v>
       </c>
@@ -3853,7 +3848,7 @@
       <c r="G14" s="30">
         <v>8.7489779999999993</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="34">
         <v>2.2000000000000001E-4</v>
       </c>
     </row>
@@ -3874,7 +3869,7 @@
     </row>
     <row r="16" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="11"/>
@@ -3892,10 +3887,10 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="58" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="23" t="s">
@@ -3910,15 +3905,15 @@
       <c r="G17" s="25">
         <v>5.9460819999999996</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <v>0.36364000000000002</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="58" t="s">
         <v>77</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -3933,15 +3928,15 @@
       <c r="G18" s="25">
         <v>27.284783000000001</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="31">
         <v>0.14141100000000001</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="60" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="27" t="s">
@@ -3956,7 +3951,7 @@
       <c r="G19" s="28">
         <v>31.690276000000001</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>1.22E-4</v>
       </c>
     </row>
@@ -3964,7 +3959,7 @@
       <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="50"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="9" t="s">
         <v>0</v>
       </c>
@@ -3998,7 +3993,7 @@
       <c r="G22" s="22">
         <v>0.101788</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="31">
         <v>0.74999300000000002</v>
       </c>
     </row>
@@ -4019,7 +4014,7 @@
       <c r="G23" s="30">
         <v>4.781625</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="34">
         <v>9.2610000000000001E-3</v>
       </c>
     </row>
@@ -4040,7 +4035,7 @@
     </row>
     <row r="25" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="11"/>
@@ -4058,10 +4053,10 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="58" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -4076,15 +4071,15 @@
       <c r="G26" s="25">
         <v>10.212514000000001</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="31">
         <v>0.10566200000000001</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="58" t="s">
         <v>80</v>
       </c>
       <c r="D27" s="23" t="s">
@@ -4099,15 +4094,15 @@
       <c r="G27" s="25">
         <v>5.2597490000000002</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="31">
         <v>0.96443699999999999</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="60" t="s">
         <v>81</v>
       </c>
       <c r="D28" s="27" t="s">
@@ -4122,7 +4117,7 @@
       <c r="G28" s="28">
         <v>-0.91251599999999999</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="35">
         <v>1.3528E-2</v>
       </c>
     </row>
@@ -4130,7 +4125,7 @@
       <c r="B30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="9" t="s">
         <v>0</v>
       </c>
@@ -4164,7 +4159,7 @@
       <c r="G31" s="22">
         <v>2.9720049999999998</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="31">
         <v>8.6102999999999999E-2</v>
       </c>
     </row>
@@ -4185,7 +4180,7 @@
       <c r="G32" s="22">
         <v>0.871726</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="31">
         <v>0.41964899999999999</v>
       </c>
     </row>
@@ -4206,7 +4201,7 @@
     </row>
     <row r="34" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="11"/>
@@ -4224,10 +4219,10 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="58" t="s">
         <v>91</v>
       </c>
       <c r="D35" s="23" t="s">
@@ -4242,15 +4237,15 @@
       <c r="G35" s="25">
         <v>14.644916</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="31">
         <v>0.40166299999999999</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="58" t="s">
         <v>92</v>
       </c>
       <c r="D36" s="23" t="s">
@@ -4265,18 +4260,18 @@
       <c r="G36" s="25">
         <v>14.927391999999999</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="31">
         <v>0.51743799999999995</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="26">
@@ -4288,7 +4283,7 @@
       <c r="G37" s="26">
         <v>7.2610749999999999</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H37" s="32">
         <v>0.989846</v>
       </c>
     </row>
@@ -4296,7 +4291,7 @@
       <c r="B39" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="50"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="9" t="s">
         <v>0</v>
       </c>
@@ -4351,7 +4346,7 @@
       <c r="G41" s="22">
         <v>1.278897</v>
       </c>
-      <c r="H41" s="32">
+      <c r="H41" s="31">
         <v>0.28037800000000002</v>
       </c>
     </row>
@@ -4372,7 +4367,7 @@
     </row>
     <row r="43" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="11"/>
@@ -4390,10 +4385,10 @@
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="65" t="s">
+      <c r="C44" s="58" t="s">
         <v>94</v>
       </c>
       <c r="D44" s="23" t="s">
@@ -4408,15 +4403,15 @@
       <c r="G44" s="25">
         <v>4.8752300000000002</v>
       </c>
-      <c r="H44" s="32">
+      <c r="H44" s="31">
         <v>0.26283600000000001</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="58" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="23" t="s">
@@ -4431,18 +4426,18 @@
       <c r="G45" s="25">
         <v>4.2960099999999999</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="31">
         <v>0.67078199999999999</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="26">
@@ -4454,180 +4449,122 @@
       <c r="G46" s="26">
         <v>1.581575</v>
       </c>
-      <c r="H46" s="33">
+      <c r="H46" s="32">
         <v>0.70625599999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="54"/>
-    </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="31"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
-      <c r="H49" s="31"/>
+      <c r="H49" s="1"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="41"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
-      <c r="H50" s="56"/>
+      <c r="H50" s="50"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
-      <c r="H51" s="31"/>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="57"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="51"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="54"/>
-    </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="31"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
-      <c r="H58" s="31"/>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="41"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="58"/>
+      <c r="H59" s="52"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
-      <c r="H60" s="31"/>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="57"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="51"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
       <c r="E63" s="25"/>
       <c r="F63" s="25"/>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="41"/>
+      <c r="D64" s="38"/>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
       <c r="G64" s="25"/>
-      <c r="H64" s="56"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="54"/>
+      <c r="H64" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4640,10 +4577,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FFC064-2F91-4093-9CA2-53F2C36B19E0}">
-  <dimension ref="B1:H65"/>
+  <dimension ref="B1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4660,21 +4597,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="3" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
@@ -4695,7 +4632,7 @@
       <c r="B4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="23" t="s">
         <v>15</v>
       </c>
@@ -4716,7 +4653,7 @@
       <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="29" t="s">
         <v>13</v>
       </c>
@@ -4729,13 +4666,13 @@
       <c r="G5" s="30">
         <v>6.9440400000000002</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="34">
         <v>1.1869999999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="23" t="s">
         <v>16</v>
       </c>
@@ -4750,7 +4687,7 @@
     </row>
     <row r="7" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="18"/>
@@ -4768,33 +4705,33 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="41">
         <v>-1.286</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="41">
         <v>-2.6955439999999999</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="41">
         <v>0.123544</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="42">
         <v>8.1814999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="58" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -4809,15 +4746,15 @@
       <c r="G9" s="25">
         <v>1.962329</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <v>0.76895000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="60" t="s">
         <v>59</v>
       </c>
       <c r="D10" s="27" t="s">
@@ -4832,7 +4769,7 @@
       <c r="G10" s="28">
         <v>2.8780060000000001</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="35">
         <v>1.32E-3</v>
       </c>
     </row>
@@ -4840,7 +4777,7 @@
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="9" t="s">
         <v>0</v>
       </c>
@@ -4861,7 +4798,7 @@
       <c r="B13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="23" t="s">
         <v>15</v>
       </c>
@@ -4874,7 +4811,7 @@
       <c r="G13" s="22">
         <v>0.96716299999999999</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="31">
         <v>0.33032</v>
       </c>
     </row>
@@ -4882,7 +4819,7 @@
       <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="29" t="s">
         <v>13</v>
       </c>
@@ -4895,13 +4832,13 @@
       <c r="G14" s="30">
         <v>4.0311729999999999</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="34">
         <v>2.4081000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="65"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="23" t="s">
         <v>16</v>
       </c>
@@ -4916,7 +4853,7 @@
     </row>
     <row r="16" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="11"/>
@@ -4934,10 +4871,10 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="58" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="23" t="s">
@@ -4952,15 +4889,15 @@
       <c r="G17" s="25">
         <v>1.5615380000000001</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <v>0.77264200000000005</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="58" t="s">
         <v>62</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -4975,30 +4912,30 @@
       <c r="G18" s="25">
         <v>2.1649029999999998</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="31">
         <v>0.11310199999999999</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="65">
         <v>0.64605900000000005</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="65">
         <v>-1.4252000000000001E-2</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="65">
         <v>1.3063709999999999</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="66">
         <v>5.6349999999999997E-2</v>
       </c>
     </row>
@@ -5006,7 +4943,7 @@
       <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="9" t="s">
         <v>0</v>
       </c>
@@ -5027,7 +4964,7 @@
       <c r="B22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="64"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="23" t="s">
         <v>15</v>
       </c>
@@ -5048,7 +4985,7 @@
       <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="65"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="29" t="s">
         <v>13</v>
       </c>
@@ -5067,7 +5004,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="65"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="23" t="s">
         <v>16</v>
       </c>
@@ -5082,7 +5019,7 @@
     </row>
     <row r="25" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="11"/>
@@ -5100,33 +5037,33 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="58" t="s">
         <v>70</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="43">
         <v>-5.0902589999999996</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="43">
         <v>-8.8686729999999994</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="43">
         <v>-1.3118460000000001</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="34">
         <v>4.7930000000000004E-3</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="58" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="23" t="s">
@@ -5141,15 +5078,15 @@
       <c r="G27" s="25">
         <v>4.0104680000000004</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="31">
         <v>0.99937500000000001</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="60" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="27" t="s">
@@ -5164,7 +5101,7 @@
       <c r="G28" s="28">
         <v>8.1080430000000003</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="35">
         <v>4.35E-4</v>
       </c>
     </row>
@@ -5172,7 +5109,7 @@
       <c r="B30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="63"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="9" t="s">
         <v>0</v>
       </c>
@@ -5193,7 +5130,7 @@
       <c r="B31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="64"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="23" t="s">
         <v>15</v>
       </c>
@@ -5214,7 +5151,7 @@
       <c r="B32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="65"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="23" t="s">
         <v>13</v>
       </c>
@@ -5227,13 +5164,13 @@
       <c r="G32" s="22">
         <v>1.599234</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="31">
         <v>0.20436000000000001</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
-      <c r="C33" s="65"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="23" t="s">
         <v>16</v>
       </c>
@@ -5248,7 +5185,7 @@
     </row>
     <row r="34" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="11"/>
@@ -5266,10 +5203,10 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="58" t="s">
         <v>103</v>
       </c>
       <c r="D35" s="23" t="s">
@@ -5284,15 +5221,15 @@
       <c r="G35" s="25">
         <v>0.8427</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="31">
         <v>0.719831</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="58" t="s">
         <v>104</v>
       </c>
       <c r="D36" s="23" t="s">
@@ -5307,18 +5244,18 @@
       <c r="G36" s="25">
         <v>1.174949</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="31">
         <v>0.20863300000000001</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="26">
@@ -5330,7 +5267,7 @@
       <c r="G37" s="26">
         <v>0.80019600000000002</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H37" s="32">
         <v>0.39966299999999999</v>
       </c>
     </row>
@@ -5338,7 +5275,7 @@
       <c r="B39" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="63"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="9" t="s">
         <v>0</v>
       </c>
@@ -5359,7 +5296,7 @@
       <c r="B40" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="64"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="23" t="s">
         <v>15</v>
       </c>
@@ -5380,7 +5317,7 @@
       <c r="B41" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="65"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="29" t="s">
         <v>13</v>
       </c>
@@ -5393,13 +5330,13 @@
       <c r="G41" s="30">
         <v>8.7191369999999999</v>
       </c>
-      <c r="H41" s="35">
+      <c r="H41" s="34">
         <v>2.2599999999999999E-4</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
-      <c r="C42" s="65"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="23" t="s">
         <v>16</v>
       </c>
@@ -5414,7 +5351,7 @@
     </row>
     <row r="43" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="11"/>
@@ -5432,10 +5369,10 @@
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="65" t="s">
+      <c r="C44" s="58" t="s">
         <v>106</v>
       </c>
       <c r="D44" s="23" t="s">
@@ -5450,38 +5387,38 @@
       <c r="G44" s="25">
         <v>0.24848899999999999</v>
       </c>
-      <c r="H44" s="32">
+      <c r="H44" s="31">
         <v>0.93880200000000003</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="58" t="s">
         <v>107</v>
       </c>
       <c r="D45" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="43">
         <v>-0.273449</v>
       </c>
-      <c r="F45" s="46">
+      <c r="F45" s="43">
         <v>-0.50744599999999995</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="43">
         <v>-3.9453000000000002E-2</v>
       </c>
-      <c r="H45" s="35">
+      <c r="H45" s="34">
         <v>1.7291000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="60" t="s">
         <v>108</v>
       </c>
       <c r="D46" s="27" t="s">
@@ -5496,24 +5433,15 @@
       <c r="G46" s="28">
         <v>-0.127724</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H46" s="35">
         <v>1.9799999999999999E-4</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="31"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="54"/>
     </row>
     <row r="48" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="63"/>
+      <c r="C48" s="56"/>
       <c r="D48" s="9" t="s">
         <v>0</v>
       </c>
@@ -5534,7 +5462,7 @@
       <c r="B49" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="64"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="23" t="s">
         <v>15</v>
       </c>
@@ -5555,7 +5483,7 @@
       <c r="B50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="65"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="29" t="s">
         <v>13</v>
       </c>
@@ -5568,13 +5496,13 @@
       <c r="G50" s="30">
         <v>8.8618109999999994</v>
       </c>
-      <c r="H50" s="35">
+      <c r="H50" s="34">
         <v>1.9799999999999999E-4</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="3"/>
-      <c r="C51" s="65"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="23" t="s">
         <v>16</v>
       </c>
@@ -5589,7 +5517,7 @@
     </row>
     <row r="52" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3"/>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D52" s="11"/>
@@ -5607,33 +5535,33 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="58" t="s">
         <v>109</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="43">
         <v>-278.539468</v>
       </c>
-      <c r="F53" s="46">
+      <c r="F53" s="43">
         <v>-539.59393899999998</v>
       </c>
-      <c r="G53" s="46">
+      <c r="G53" s="43">
         <v>-17.484997</v>
       </c>
-      <c r="H53" s="35">
+      <c r="H53" s="34">
         <v>3.3382000000000002E-2</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="58" t="s">
         <v>110</v>
       </c>
       <c r="D54" s="23" t="s">
@@ -5648,15 +5576,15 @@
       <c r="G54" s="25">
         <v>361.68169799999998</v>
       </c>
-      <c r="H54" s="32">
+      <c r="H54" s="31">
         <v>0.77748200000000001</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="60" t="s">
         <v>111</v>
       </c>
       <c r="D55" s="27" t="s">
@@ -5671,99 +5599,66 @@
       <c r="G55" s="28">
         <v>571.63559399999997</v>
       </c>
-      <c r="H55" s="36">
+      <c r="H55" s="35">
         <v>2.6600000000000001E-4</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="31"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="54"/>
-    </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="43"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="41"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="31"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="52"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
-      <c r="H58" s="31"/>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="31"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="41"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="58"/>
+      <c r="H59" s="52"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="31"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="31"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
-      <c r="H60" s="31"/>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="31"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="57"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="51"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="31"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="31"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="31"/>
       <c r="E63" s="25"/>
       <c r="F63" s="25"/>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="31"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="41"/>
+      <c r="D64" s="38"/>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
       <c r="G64" s="25"/>
-      <c r="H64" s="56"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="31"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="54"/>
+      <c r="H64" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/FishLandings/household groups/statistics summary.xlsx
+++ b/FishLandings/household groups/statistics summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmmaStrand\MyProjects\Kenya_SamakiSalama\FishLandings\household groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914DE7DA-0842-488E-AB26-71D9BAB2F972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CAE58B-10C0-4E57-A868-B076702D68E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31125" yWindow="3390" windowWidth="21600" windowHeight="11235" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="118">
   <si>
     <t>Effect</t>
   </si>
@@ -217,9 +217,6 @@
     <t>0.45 ± 0.11 (4)</t>
   </si>
   <si>
-    <t>0.79 ± 0.29 (18)</t>
-  </si>
-  <si>
     <t>1.44 ± 0.13 (29)</t>
   </si>
   <si>
@@ -383,6 +380,9 @@
   </si>
   <si>
     <t>71.97 ± 6.06 (71)</t>
+  </si>
+  <si>
+    <t>0.51 ± 0.08 (17)</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,9 +731,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E06F813-7338-485B-A007-E93757D85C7B}">
   <dimension ref="B3:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,7 +1063,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -1071,7 +1078,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -1086,7 +1093,7 @@
         <v>55</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>8</v>
@@ -1103,7 +1110,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -1118,7 +1125,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -1133,7 +1140,7 @@
         <v>55</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>8</v>
@@ -1150,7 +1157,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -1165,7 +1172,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
@@ -1180,7 +1187,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>8</v>
@@ -1197,7 +1204,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -1212,7 +1219,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -1227,7 +1234,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>8</v>
@@ -1244,7 +1251,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -1259,7 +1266,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
@@ -1274,7 +1281,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>8</v>
@@ -1291,7 +1298,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -1306,7 +1313,7 @@
         <v>52</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -1321,7 +1328,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" s="47" t="s">
         <v>8</v>
@@ -1338,7 +1345,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -1353,7 +1360,7 @@
         <v>52</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -1368,7 +1375,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>8</v>
@@ -1385,7 +1392,7 @@
         <v>53</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>6</v>
@@ -1400,7 +1407,7 @@
         <v>52</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -1415,7 +1422,7 @@
         <v>55</v>
       </c>
       <c r="D27" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>8</v>
@@ -1432,7 +1439,7 @@
         <v>53</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -1447,7 +1454,7 @@
         <v>52</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
@@ -1462,7 +1469,7 @@
         <v>55</v>
       </c>
       <c r="D30" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="47" t="s">
         <v>8</v>
@@ -1479,7 +1486,7 @@
         <v>53</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -1494,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32" s="53" t="s">
         <v>7</v>
@@ -1509,7 +1516,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="47" t="s">
         <v>8</v>
@@ -1526,7 +1533,7 @@
         <v>53</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -1541,7 +1548,7 @@
         <v>52</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>7</v>
@@ -1556,7 +1563,7 @@
         <v>55</v>
       </c>
       <c r="D36" s="60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" s="47" t="s">
         <v>8</v>
@@ -1573,7 +1580,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -1588,7 +1595,7 @@
         <v>52</v>
       </c>
       <c r="D38" s="58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -1603,7 +1610,7 @@
         <v>55</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" s="47" t="s">
         <v>8</v>
@@ -1620,7 +1627,7 @@
         <v>53</v>
       </c>
       <c r="D40" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
@@ -1635,7 +1642,7 @@
         <v>52</v>
       </c>
       <c r="D41" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>7</v>
@@ -1650,7 +1657,7 @@
         <v>55</v>
       </c>
       <c r="D42" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>8</v>
@@ -1667,7 +1674,7 @@
         <v>53</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -1682,7 +1689,7 @@
         <v>52</v>
       </c>
       <c r="D44" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -1697,7 +1704,7 @@
         <v>55</v>
       </c>
       <c r="D45" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>8</v>
@@ -1767,7 +1774,7 @@
         <v>6</v>
       </c>
       <c r="F49" s="31">
-        <v>0.77264200000000005</v>
+        <v>0.97677599999999998</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1776,13 +1783,13 @@
         <v>52</v>
       </c>
       <c r="D50" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="31">
-        <v>0.11310199999999999</v>
+      <c r="F50" s="34">
+        <v>7.3119999999999999E-3</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1791,13 +1798,13 @@
         <v>55</v>
       </c>
       <c r="D51" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E51" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="35">
-        <v>5.6349999999999997E-2</v>
+      <c r="F51" s="67" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1808,7 +1815,7 @@
         <v>53</v>
       </c>
       <c r="D52" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E52" s="53" t="s">
         <v>6</v>
@@ -1823,7 +1830,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -1838,7 +1845,7 @@
         <v>55</v>
       </c>
       <c r="D54" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E54" s="47" t="s">
         <v>8</v>
@@ -1855,7 +1862,7 @@
         <v>53</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>6</v>
@@ -1870,7 +1877,7 @@
         <v>52</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -1885,7 +1892,7 @@
         <v>55</v>
       </c>
       <c r="D57" s="60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>8</v>
@@ -1902,7 +1909,7 @@
         <v>53</v>
       </c>
       <c r="D58" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>6</v>
@@ -1917,7 +1924,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E59" s="53" t="s">
         <v>7</v>
@@ -1932,7 +1939,7 @@
         <v>55</v>
       </c>
       <c r="D60" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E60" s="47" t="s">
         <v>8</v>
@@ -1949,7 +1956,7 @@
         <v>53</v>
       </c>
       <c r="D61" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E61" s="53" t="s">
         <v>6</v>
@@ -1964,7 +1971,7 @@
         <v>52</v>
       </c>
       <c r="D62" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -1979,7 +1986,7 @@
         <v>55</v>
       </c>
       <c r="D63" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E63" s="47" t="s">
         <v>8</v>
@@ -1998,7 +2005,7 @@
   <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2126,7 +2133,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>6</v>
@@ -2149,7 +2156,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>7</v>
@@ -2172,7 +2179,7 @@
         <v>55</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>8</v>
@@ -2292,7 +2299,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>6</v>
@@ -2315,7 +2322,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>7</v>
@@ -2338,7 +2345,7 @@
         <v>55</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>8</v>
@@ -2522,7 +2529,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>6</v>
@@ -2545,7 +2552,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>7</v>
@@ -2568,7 +2575,7 @@
         <v>55</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>8</v>
@@ -2688,7 +2695,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>6</v>
@@ -2711,7 +2718,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>7</v>
@@ -2734,7 +2741,7 @@
         <v>55</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>8</v>
@@ -2854,7 +2861,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>6</v>
@@ -2877,7 +2884,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>7</v>
@@ -2900,7 +2907,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>8</v>
@@ -3020,7 +3027,7 @@
         <v>53</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>6</v>
@@ -3043,7 +3050,7 @@
         <v>52</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>7</v>
@@ -3066,7 +3073,7 @@
         <v>55</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>8</v>
@@ -3186,7 +3193,7 @@
         <v>53</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>6</v>
@@ -3209,7 +3216,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>7</v>
@@ -3232,7 +3239,7 @@
         <v>55</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" s="27" t="s">
         <v>8</v>
@@ -3352,7 +3359,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>6</v>
@@ -3375,7 +3382,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>7</v>
@@ -3398,7 +3405,7 @@
         <v>55</v>
       </c>
       <c r="C55" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" s="33" t="s">
         <v>8</v>
@@ -3518,7 +3525,7 @@
         <v>53</v>
       </c>
       <c r="C62" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D62" s="39" t="s">
         <v>6</v>
@@ -3541,7 +3548,7 @@
         <v>52</v>
       </c>
       <c r="C63" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D63" s="23" t="s">
         <v>7</v>
@@ -3564,7 +3571,7 @@
         <v>55</v>
       </c>
       <c r="C64" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D64" s="27" t="s">
         <v>8</v>
@@ -3725,7 +3732,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>6</v>
@@ -3748,7 +3755,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>7</v>
@@ -3771,7 +3778,7 @@
         <v>55</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>8</v>
@@ -3891,7 +3898,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>6</v>
@@ -3914,7 +3921,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>7</v>
@@ -3937,7 +3944,7 @@
         <v>55</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>8</v>
@@ -4057,7 +4064,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>6</v>
@@ -4080,7 +4087,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>7</v>
@@ -4103,7 +4110,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>8</v>
@@ -4223,7 +4230,7 @@
         <v>53</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>6</v>
@@ -4246,7 +4253,7 @@
         <v>52</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>7</v>
@@ -4269,7 +4276,7 @@
         <v>55</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" s="33" t="s">
         <v>8</v>
@@ -4389,7 +4396,7 @@
         <v>53</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>6</v>
@@ -4412,7 +4419,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>7</v>
@@ -4435,7 +4442,7 @@
         <v>55</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="33" t="s">
         <v>8</v>
@@ -4579,8 +4586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FFC064-2F91-4093-9CA2-53F2C36B19E0}">
   <dimension ref="B1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4802,17 +4809,17 @@
       <c r="D13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="64">
         <v>0.80072299999999996</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="64">
         <v>1</v>
       </c>
-      <c r="G13" s="22">
-        <v>0.96716299999999999</v>
+      <c r="G13" s="64">
+        <v>2.3380879999999999</v>
       </c>
       <c r="H13" s="31">
-        <v>0.33032</v>
+        <v>0.13294700000000001</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -4823,17 +4830,17 @@
       <c r="D14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="30">
-        <v>6.6748919999999998</v>
-      </c>
-      <c r="F14" s="30">
+      <c r="E14" s="68">
+        <v>10.704165</v>
+      </c>
+      <c r="F14" s="68">
         <v>2</v>
       </c>
-      <c r="G14" s="30">
-        <v>4.0311729999999999</v>
-      </c>
-      <c r="H14" s="34">
-        <v>2.4081000000000002E-2</v>
+      <c r="G14" s="68">
+        <v>15.627917999999999</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -4842,13 +4849,13 @@
       <c r="D15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="22">
-        <v>39.739646999999998</v>
-      </c>
-      <c r="F15" s="22">
-        <v>48</v>
-      </c>
-      <c r="G15" s="22"/>
+      <c r="E15" s="64">
+        <v>16.096057999999999</v>
+      </c>
+      <c r="F15" s="64">
+        <v>47</v>
+      </c>
+      <c r="G15" s="64"/>
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4880,17 +4887,17 @@
       <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="25">
-        <v>0.34512700000000002</v>
-      </c>
-      <c r="F17" s="25">
-        <v>-0.87128399999999995</v>
-      </c>
-      <c r="G17" s="25">
-        <v>1.5615380000000001</v>
+      <c r="E17" s="65">
+        <v>6.7158999999999996E-2</v>
+      </c>
+      <c r="F17" s="65">
+        <v>-0.71989300000000001</v>
+      </c>
+      <c r="G17" s="65">
+        <v>0.85421000000000002</v>
       </c>
       <c r="H17" s="31">
-        <v>0.77264200000000005</v>
+        <v>0.97677599999999998</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -4898,22 +4905,22 @@
         <v>52</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="66">
         <v>0.99118700000000004</v>
       </c>
-      <c r="F18" s="25">
-        <v>-0.18253</v>
-      </c>
-      <c r="G18" s="25">
-        <v>2.1649029999999998</v>
-      </c>
-      <c r="H18" s="31">
-        <v>0.11310199999999999</v>
+      <c r="F18" s="66">
+        <v>0.235788</v>
+      </c>
+      <c r="G18" s="66">
+        <v>1.7465850000000001</v>
+      </c>
+      <c r="H18" s="34">
+        <v>7.3119999999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -4921,22 +4928,22 @@
         <v>55</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="65">
-        <v>0.64605900000000005</v>
-      </c>
-      <c r="F19" s="65">
-        <v>-1.4252000000000001E-2</v>
-      </c>
-      <c r="G19" s="65">
-        <v>1.3063709999999999</v>
-      </c>
-      <c r="H19" s="66">
-        <v>5.6349999999999997E-2</v>
+      <c r="E19" s="28">
+        <v>0.92402799999999996</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0.49141099999999999</v>
+      </c>
+      <c r="G19" s="28">
+        <v>1.3566450000000001</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5041,7 +5048,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>6</v>
@@ -5064,7 +5071,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>7</v>
@@ -5087,7 +5094,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>8</v>
@@ -5207,7 +5214,7 @@
         <v>53</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>6</v>
@@ -5230,7 +5237,7 @@
         <v>52</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>7</v>
@@ -5253,7 +5260,7 @@
         <v>55</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" s="33" t="s">
         <v>8</v>
@@ -5373,7 +5380,7 @@
         <v>53</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>6</v>
@@ -5396,7 +5403,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="29" t="s">
         <v>7</v>
@@ -5419,7 +5426,7 @@
         <v>55</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="27" t="s">
         <v>8</v>
@@ -5539,7 +5546,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>6</v>
@@ -5562,7 +5569,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>7</v>
@@ -5585,7 +5592,7 @@
         <v>55</v>
       </c>
       <c r="C55" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>8</v>

--- a/FishLandings/household groups/statistics summary.xlsx
+++ b/FishLandings/household groups/statistics summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmmaStrand\MyProjects\Kenya_SamakiSalama\FishLandings\household groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CAE58B-10C0-4E57-A868-B076702D68E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1CFC4A-D8FC-4864-930B-402529B38E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31125" yWindow="3390" windowWidth="21600" windowHeight="11235" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="118">
   <si>
     <t>Effect</t>
   </si>
@@ -448,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -612,11 +612,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,17 +752,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1021,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E06F813-7338-485B-A007-E93757D85C7B}">
-  <dimension ref="B3:F63"/>
+  <dimension ref="B3:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,10 +1083,16 @@
     <col min="4" max="4" width="25.44140625" style="62" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" style="16" customWidth="1"/>
     <col min="6" max="6" width="15" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="16"/>
+    <col min="7" max="8" width="8.88671875" style="16"/>
+    <col min="9" max="9" width="29.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" style="62" customWidth="1"/>
+    <col min="12" max="12" width="25.44140625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="15" style="16" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="44" t="s">
         <v>5</v>
       </c>
@@ -1054,8 +1108,23 @@
       <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I3" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
@@ -1071,8 +1140,23 @@
       <c r="F4" s="4">
         <v>0.10095899999999999</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I4" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="31">
+        <v>0.74869600000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="45"/>
       <c r="C5" s="54" t="s">
         <v>52</v>
@@ -1086,8 +1170,21 @@
       <c r="F5" s="4">
         <v>0.10519000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I5" s="45"/>
+      <c r="J5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="34">
+        <v>5.862E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="46"/>
       <c r="C6" s="55" t="s">
         <v>55</v>
@@ -1101,8 +1198,21 @@
       <c r="F6" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I6" s="46"/>
+      <c r="J6" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="35">
+        <v>4.052E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
@@ -1118,8 +1228,23 @@
       <c r="F7" s="31">
         <v>0.16929900000000001</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="31">
+        <v>0.36364000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="45"/>
       <c r="C8" s="54" t="s">
         <v>52</v>
@@ -1133,8 +1258,21 @@
       <c r="F8" s="31">
         <v>0.84406199999999998</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I8" s="45"/>
+      <c r="J8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="31">
+        <v>0.14141100000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="46"/>
       <c r="C9" s="55" t="s">
         <v>55</v>
@@ -1148,8 +1286,21 @@
       <c r="F9" s="35">
         <v>9.6620000000000004E-3</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I9" s="46"/>
+      <c r="J9" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="35">
+        <v>1.22E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1165,8 +1316,23 @@
       <c r="F10" s="31">
         <v>8.9454000000000006E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="31">
+        <v>0.10566200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="45"/>
       <c r="C11" s="54" t="s">
         <v>52</v>
@@ -1180,8 +1346,21 @@
       <c r="F11" s="31">
         <v>0.98400900000000002</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I11" s="45"/>
+      <c r="J11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="31">
+        <v>0.96443699999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="46"/>
       <c r="C12" s="55" t="s">
         <v>55</v>
@@ -1195,8 +1374,21 @@
       <c r="F12" s="35">
         <v>1.4345E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I12" s="46"/>
+      <c r="J12" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="35">
+        <v>1.3528E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
@@ -1212,8 +1404,23 @@
       <c r="F13" s="31">
         <v>0.11010300000000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="31">
+        <v>0.40166299999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="45"/>
       <c r="C14" s="54" t="s">
         <v>52</v>
@@ -1227,8 +1434,21 @@
       <c r="F14" s="31">
         <v>0.45139099999999999</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I14" s="45"/>
+      <c r="J14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="31">
+        <v>0.51743799999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="46"/>
       <c r="C15" s="55" t="s">
         <v>55</v>
@@ -1242,8 +1462,21 @@
       <c r="F15" s="35">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I15" s="45"/>
+      <c r="J15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="31">
+        <v>0.989846</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
@@ -1259,8 +1492,23 @@
       <c r="F16" s="31">
         <v>7.8071000000000002E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I16" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="76">
+        <v>0.26283600000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="45"/>
       <c r="C17" s="54" t="s">
         <v>52</v>
@@ -1274,8 +1522,21 @@
       <c r="F17" s="31">
         <v>0.44097399999999998</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I17" s="45"/>
+      <c r="J17" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="31">
+        <v>0.67078199999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="46"/>
       <c r="C18" s="55" t="s">
         <v>55</v>
@@ -1289,8 +1550,21 @@
       <c r="F18" s="35">
         <v>8.0000000000000007E-5</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I18" s="46"/>
+      <c r="J18" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="32">
+        <v>0.70625599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>26</v>
       </c>
@@ -1306,8 +1580,13 @@
       <c r="F19" s="31">
         <v>0.26812000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="71"/>
+    </row>
+    <row r="20" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="45"/>
       <c r="C20" s="54" t="s">
         <v>52</v>
@@ -1321,8 +1600,13 @@
       <c r="F20" s="31">
         <v>0.48186200000000001</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I20" s="72"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="71"/>
+    </row>
+    <row r="21" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="46"/>
       <c r="C21" s="55" t="s">
         <v>55</v>
@@ -1336,8 +1620,13 @@
       <c r="F21" s="35">
         <v>2.0330000000000001E-3</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I21" s="72"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="82"/>
+    </row>
+    <row r="22" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>27</v>
       </c>
@@ -1353,8 +1642,13 @@
       <c r="F22" s="31">
         <v>0.14516299999999999</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I22" s="68"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="71"/>
+    </row>
+    <row r="23" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="45"/>
       <c r="C23" s="54" t="s">
         <v>52</v>
@@ -1368,8 +1662,13 @@
       <c r="F23" s="31">
         <v>0.97426599999999997</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I23" s="72"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="71"/>
+    </row>
+    <row r="24" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="46"/>
       <c r="C24" s="55" t="s">
         <v>55</v>
@@ -1383,8 +1682,13 @@
       <c r="F24" s="35">
         <v>2.648E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I24" s="72"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="82"/>
+    </row>
+    <row r="25" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="48" t="s">
         <v>30</v>
       </c>
@@ -1400,8 +1704,13 @@
       <c r="F25" s="42">
         <v>5.6696000000000003E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I25" s="73"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
+    </row>
+    <row r="26" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="45"/>
       <c r="C26" s="54" t="s">
         <v>52</v>
@@ -1415,8 +1724,13 @@
       <c r="F26" s="31">
         <v>0.793767</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I26" s="72"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="71"/>
+    </row>
+    <row r="27" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="46"/>
       <c r="C27" s="55" t="s">
         <v>55</v>
@@ -1430,8 +1744,13 @@
       <c r="F27" s="32">
         <v>0.119883</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I27" s="72"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="71"/>
+    </row>
+    <row r="28" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1447,8 +1766,13 @@
       <c r="F28" s="42">
         <v>6.5806000000000003E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I28" s="68"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="74"/>
+    </row>
+    <row r="29" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="45"/>
       <c r="C29" s="54" t="s">
         <v>52</v>
@@ -1462,8 +1786,13 @@
       <c r="F29" s="31">
         <v>0.48275299999999999</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I29" s="72"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="71"/>
+    </row>
+    <row r="30" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="46"/>
       <c r="C30" s="55" t="s">
         <v>55</v>
@@ -1477,8 +1806,13 @@
       <c r="F30" s="35">
         <v>8.1000000000000004E-5</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I30" s="72"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="82"/>
+    </row>
+    <row r="31" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
@@ -1494,8 +1828,13 @@
       <c r="F31" s="31">
         <v>0.74869600000000003</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+    </row>
+    <row r="32" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="45"/>
       <c r="C32" s="54" t="s">
         <v>52</v>
@@ -1509,8 +1848,13 @@
       <c r="F32" s="34">
         <v>5.862E-3</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+    </row>
+    <row r="33" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="46"/>
       <c r="C33" s="55" t="s">
         <v>55</v>
@@ -1524,8 +1868,13 @@
       <c r="F33" s="35">
         <v>4.052E-3</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+    </row>
+    <row r="34" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>34</v>
       </c>
@@ -1541,8 +1890,13 @@
       <c r="F34" s="31">
         <v>0.36364000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+    </row>
+    <row r="35" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="45"/>
       <c r="C35" s="54" t="s">
         <v>52</v>
@@ -1556,8 +1910,13 @@
       <c r="F35" s="31">
         <v>0.14141100000000001</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+    </row>
+    <row r="36" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="46"/>
       <c r="C36" s="55" t="s">
         <v>55</v>
@@ -1571,8 +1930,13 @@
       <c r="F36" s="35">
         <v>1.22E-4</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+    </row>
+    <row r="37" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>36</v>
       </c>
@@ -1588,8 +1952,13 @@
       <c r="F37" s="31">
         <v>0.10566200000000001</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+    </row>
+    <row r="38" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="45"/>
       <c r="C38" s="54" t="s">
         <v>52</v>
@@ -1603,8 +1972,13 @@
       <c r="F38" s="31">
         <v>0.96443699999999999</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+    </row>
+    <row r="39" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="46"/>
       <c r="C39" s="55" t="s">
         <v>55</v>
@@ -1618,8 +1992,13 @@
       <c r="F39" s="35">
         <v>1.3528E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+    </row>
+    <row r="40" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1635,8 +2014,13 @@
       <c r="F40" s="31">
         <v>0.40166299999999999</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+    </row>
+    <row r="41" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="45"/>
       <c r="C41" s="54" t="s">
         <v>52</v>
@@ -1650,8 +2034,13 @@
       <c r="F41" s="31">
         <v>0.51743799999999995</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+    </row>
+    <row r="42" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="46"/>
       <c r="C42" s="55" t="s">
         <v>55</v>
@@ -1665,8 +2054,13 @@
       <c r="F42" s="32">
         <v>0.989846</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+    </row>
+    <row r="43" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>38</v>
       </c>
@@ -1682,8 +2076,13 @@
       <c r="F43" s="31">
         <v>0.26283600000000001</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+    </row>
+    <row r="44" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="45"/>
       <c r="C44" s="54" t="s">
         <v>52</v>
@@ -1697,8 +2096,13 @@
       <c r="F44" s="31">
         <v>0.67078199999999999</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+    </row>
+    <row r="45" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="46"/>
       <c r="C45" s="55" t="s">
         <v>55</v>
@@ -1712,8 +2116,13 @@
       <c r="F45" s="32">
         <v>0.70625599999999999</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+    </row>
+    <row r="46" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>42</v>
       </c>
@@ -1723,14 +2132,19 @@
       <c r="D46" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="53" t="s">
+      <c r="E46" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="67">
         <v>8.1814999999999999E-2</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I46" s="68"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="74"/>
+    </row>
+    <row r="47" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="45"/>
       <c r="C47" s="54" t="s">
         <v>52</v>
@@ -1744,8 +2158,13 @@
       <c r="F47" s="31">
         <v>0.76895000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I47" s="72"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="71"/>
+    </row>
+    <row r="48" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="46"/>
       <c r="C48" s="55" t="s">
         <v>55</v>
@@ -1759,8 +2178,13 @@
       <c r="F48" s="35">
         <v>1.32E-3</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I48" s="72"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="82"/>
+    </row>
+    <row r="49" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>43</v>
       </c>
@@ -1776,8 +2200,13 @@
       <c r="F49" s="31">
         <v>0.97677599999999998</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I49" s="68"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="71"/>
+    </row>
+    <row r="50" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="45"/>
       <c r="C50" s="54" t="s">
         <v>52</v>
@@ -1791,8 +2220,13 @@
       <c r="F50" s="34">
         <v>7.3119999999999999E-3</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I50" s="72"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="82"/>
+    </row>
+    <row r="51" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="46"/>
       <c r="C51" s="55" t="s">
         <v>55</v>
@@ -1803,11 +2237,16 @@
       <c r="E51" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="67" t="s">
+      <c r="F51" s="63" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I51" s="72"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="83"/>
+    </row>
+    <row r="52" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>44</v>
       </c>
@@ -1823,8 +2262,13 @@
       <c r="F52" s="34">
         <v>4.7930000000000004E-3</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I52" s="68"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="82"/>
+    </row>
+    <row r="53" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="45"/>
       <c r="C53" s="54" t="s">
         <v>52</v>
@@ -1838,8 +2282,13 @@
       <c r="F53" s="31">
         <v>0.99937500000000001</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I53" s="72"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="71"/>
+    </row>
+    <row r="54" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="46"/>
       <c r="C54" s="55" t="s">
         <v>55</v>
@@ -1853,8 +2302,13 @@
       <c r="F54" s="35">
         <v>4.35E-4</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I54" s="72"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="82"/>
+    </row>
+    <row r="55" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>46</v>
       </c>
@@ -1870,8 +2324,13 @@
       <c r="F55" s="31">
         <v>0.719831</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I55" s="70"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="71"/>
+    </row>
+    <row r="56" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="45"/>
       <c r="C56" s="54" t="s">
         <v>52</v>
@@ -1885,8 +2344,13 @@
       <c r="F56" s="31">
         <v>0.20863300000000001</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I56" s="72"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="71"/>
+    </row>
+    <row r="57" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="46"/>
       <c r="C57" s="55" t="s">
         <v>55</v>
@@ -1900,8 +2364,13 @@
       <c r="F57" s="32">
         <v>0.39966299999999999</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I57" s="72"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="71"/>
+    </row>
+    <row r="58" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>48</v>
       </c>
@@ -1917,8 +2386,13 @@
       <c r="F58" s="31">
         <v>0.93880200000000003</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I58" s="68"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="71"/>
+    </row>
+    <row r="59" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="45"/>
       <c r="C59" s="54" t="s">
         <v>52</v>
@@ -1932,8 +2406,13 @@
       <c r="F59" s="34">
         <v>1.7291000000000001E-2</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I59" s="72"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="82"/>
+    </row>
+    <row r="60" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="46"/>
       <c r="C60" s="55" t="s">
         <v>55</v>
@@ -1947,8 +2426,13 @@
       <c r="F60" s="35">
         <v>1.9799999999999999E-4</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I60" s="72"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="82"/>
+    </row>
+    <row r="61" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>50</v>
       </c>
@@ -1964,8 +2448,13 @@
       <c r="F61" s="34">
         <v>3.3382000000000002E-2</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I61" s="68"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="82"/>
+    </row>
+    <row r="62" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="45"/>
       <c r="C62" s="54" t="s">
         <v>52</v>
@@ -1979,8 +2468,13 @@
       <c r="F62" s="31">
         <v>0.77748200000000001</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I62" s="72"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="70"/>
+      <c r="M62" s="71"/>
+    </row>
+    <row r="63" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="46"/>
       <c r="C63" s="55" t="s">
         <v>55</v>
@@ -1994,6 +2488,32 @@
       <c r="F63" s="35">
         <v>2.6600000000000001E-4</v>
       </c>
+      <c r="I63" s="72"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="82"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="72"/>
+    </row>
+    <row r="65" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="75"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="72"/>
+    </row>
+    <row r="66" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="75"/>
+      <c r="L66" s="72"/>
+      <c r="M66" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2005,7 +2525,7 @@
   <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2021,15 +2541,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="3" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
@@ -2400,7 +2920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C378BB95-8E32-43A5-9776-0E3CD4F07137}">
   <dimension ref="B1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -2417,15 +2937,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="3" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -3620,15 +4140,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="3" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -4586,7 +5106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FFC064-2F91-4093-9CA2-53F2C36B19E0}">
   <dimension ref="B1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -4604,15 +5124,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="3" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -4809,13 +5329,13 @@
       <c r="D13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="22">
         <v>0.80072299999999996</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="22">
         <v>1</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="22">
         <v>2.3380879999999999</v>
       </c>
       <c r="H13" s="31">
@@ -4830,16 +5350,16 @@
       <c r="D14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="30">
         <v>10.704165</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="30">
         <v>2</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="30">
         <v>15.627917999999999</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="64" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4849,13 +5369,13 @@
       <c r="D15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="22">
         <v>16.096057999999999</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="22">
         <v>47</v>
       </c>
-      <c r="G15" s="64"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4887,13 +5407,13 @@
       <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="25">
         <v>6.7158999999999996E-2</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="25">
         <v>-0.71989300000000001</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="25">
         <v>0.85421000000000002</v>
       </c>
       <c r="H17" s="31">
@@ -4910,13 +5430,13 @@
       <c r="D18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="43">
         <v>0.99118700000000004</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="43">
         <v>0.235788</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="43">
         <v>1.7465850000000001</v>
       </c>
       <c r="H18" s="34">
@@ -4942,7 +5462,7 @@
       <c r="G19" s="28">
         <v>1.3566450000000001</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="63" t="s">
         <v>19</v>
       </c>
     </row>
